--- a/Gantt Chart Proper.xlsx
+++ b/Gantt Chart Proper.xlsx
@@ -5,23 +5,22 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\SR8137CF01-FS02\StudentUsers\2018\433039912\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11850"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21525" windowHeight="11850"/>
   </bookViews>
   <sheets>
     <sheet name="Basic Manual Gantt Chart" sheetId="1" r:id="rId1"/>
     <sheet name="TTPI" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="41">
   <si>
     <t>Task Name</t>
   </si>
@@ -144,9 +143,6 @@
   </si>
   <si>
     <t>Evaluate the Final Solution</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
 </sst>
 </file>
@@ -157,7 +153,7 @@
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
     <numFmt numFmtId="165" formatCode="d&quot;/&quot;m&quot;/&quot;yy"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="14">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -220,11 +216,6 @@
       <name val="Courier New"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
       <b/>
       <i/>
       <sz val="16"/>
@@ -237,7 +228,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -272,6 +263,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF000000"/>
         <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D2E9"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D2E9"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -329,7 +332,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -391,21 +394,27 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -419,16 +428,19 @@
     <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -437,6 +449,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFD9D2E9"/>
       <color rgb="FFFF99FF"/>
     </mruColors>
   </colors>
@@ -495,9 +508,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Basic Manual Gantt Chart'!$A$2:$A$36</c:f>
+              <c:f>'Basic Manual Gantt Chart'!$A$2:$A$34</c:f>
               <c:strCache>
-                <c:ptCount val="20"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>Gantt Chart</c:v>
                 </c:pt>
@@ -516,16 +529,16 @@
                 <c:pt idx="5">
                   <c:v>Initial Rights Research</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>Context Diagram AND Data Flow Diagram</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>System Flow Chart</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>Structure Chart</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>IPO Chart</c:v>
                 </c:pt>
                 <c:pt idx="11">
@@ -537,13 +550,13 @@
                 <c:pt idx="13">
                   <c:v>Screen Design</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="14">
                   <c:v>Internal Documentation</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="16">
                   <c:v>Develop Test Data</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="17">
                   <c:v>Evaluate the Final Solution</c:v>
                 </c:pt>
               </c:strCache>
@@ -551,18 +564,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Basic Manual Gantt Chart'!$D$2:$D$36</c:f>
+              <c:f>'Basic Manual Gantt Chart'!$D$2:$D$34</c:f>
               <c:numCache>
                 <c:formatCode>dd/mm/yyyy</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0" formatCode="m/d/yyyy">
-                  <c:v>43031</c:v>
+                  <c:v>43038</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>43031</c:v>
+                  <c:v>43038</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43031</c:v>
+                  <c:v>43038</c:v>
                 </c:pt>
                 <c:pt idx="3" formatCode="m/d/yyyy">
                   <c:v>43038</c:v>
@@ -573,9 +586,6 @@
                 <c:pt idx="5" formatCode="m/d/yyyy">
                   <c:v>43038</c:v>
                 </c:pt>
-                <c:pt idx="6" formatCode="m/d/yyyy">
-                  <c:v>43045</c:v>
-                </c:pt>
                 <c:pt idx="7" formatCode="m/d/yyyy">
                   <c:v>43045</c:v>
                 </c:pt>
@@ -583,6 +593,9 @@
                   <c:v>43045</c:v>
                 </c:pt>
                 <c:pt idx="9" formatCode="m/d/yyyy">
+                  <c:v>43045</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="m/d/yyyy">
                   <c:v>43045</c:v>
                 </c:pt>
               </c:numCache>
@@ -609,9 +622,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Basic Manual Gantt Chart'!$A$2:$A$36</c:f>
+              <c:f>'Basic Manual Gantt Chart'!$A$2:$A$34</c:f>
               <c:strCache>
-                <c:ptCount val="20"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>Gantt Chart</c:v>
                 </c:pt>
@@ -630,16 +643,16 @@
                 <c:pt idx="5">
                   <c:v>Initial Rights Research</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>Context Diagram AND Data Flow Diagram</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>System Flow Chart</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>Structure Chart</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>IPO Chart</c:v>
                 </c:pt>
                 <c:pt idx="11">
@@ -651,13 +664,13 @@
                 <c:pt idx="13">
                   <c:v>Screen Design</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="14">
                   <c:v>Internal Documentation</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="16">
                   <c:v>Develop Test Data</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="17">
                   <c:v>Evaluate the Final Solution</c:v>
                 </c:pt>
               </c:strCache>
@@ -665,18 +678,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Basic Manual Gantt Chart'!$F$2:$F$36</c:f>
+              <c:f>'Basic Manual Gantt Chart'!$F$2:$F$34</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="35"/>
+                <c:ptCount val="33"/>
                 <c:pt idx="0">
-                  <c:v>6</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>6</c:v>
@@ -687,16 +700,16 @@
                 <c:pt idx="5">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>17</c:v>
-                </c:pt>
                 <c:pt idx="7">
                   <c:v>17</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="8" formatCode="General">
                   <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="9">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
                   <c:v>17</c:v>
                 </c:pt>
               </c:numCache>
@@ -1164,7 +1177,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1730,13 +1742,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>106455</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>129987</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>1568824</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:row>78</xdr:row>
       <xdr:rowOff>44824</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2057,10 +2069,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA40"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A35" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I69" sqref="I69"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" customHeight="1"/>
@@ -2092,13 +2104,13 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="63" t="s">
+      <c r="F1" s="54" t="s">
         <v>14</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="61"/>
+      <c r="H1" s="52"/>
     </row>
     <row r="2" spans="1:27" ht="15" customHeight="1">
       <c r="A2" s="3" t="s">
@@ -2110,18 +2122,18 @@
       <c r="C2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="64">
-        <v>43031</v>
+      <c r="D2" s="55">
+        <v>43038</v>
       </c>
       <c r="E2" s="6">
-        <v>43037</v>
-      </c>
-      <c r="F2" s="65">
+        <v>43042</v>
+      </c>
+      <c r="F2" s="56">
         <f>E2 - D2</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G2" s="7"/>
-      <c r="H2" s="62"/>
+      <c r="H2" s="53"/>
       <c r="I2" s="15"/>
       <c r="J2" s="15"/>
       <c r="L2" s="16"/>
@@ -2151,17 +2163,17 @@
         <v>23</v>
       </c>
       <c r="D3" s="18">
-        <v>43031</v>
-      </c>
-      <c r="E3" s="18">
-        <v>43037</v>
-      </c>
-      <c r="F3" s="65">
+        <v>43038</v>
+      </c>
+      <c r="E3" s="6">
+        <v>43042</v>
+      </c>
+      <c r="F3" s="56">
         <f t="shared" ref="F3:F11" si="0">E3 - D3</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G3" s="19"/>
-      <c r="H3" s="66"/>
+      <c r="H3" s="57"/>
       <c r="L3" s="20"/>
       <c r="M3" s="20"/>
       <c r="N3" s="20"/>
@@ -2170,37 +2182,35 @@
       <c r="Q3" s="21"/>
       <c r="R3" s="22"/>
       <c r="S3" s="23"/>
-      <c r="T3" s="56"/>
-      <c r="U3" s="55"/>
-      <c r="V3" s="55"/>
-      <c r="W3" s="55"/>
-      <c r="X3" s="55"/>
-      <c r="Y3" s="55"/>
-      <c r="Z3" s="55"/>
-      <c r="AA3" s="55"/>
+      <c r="T3" s="60"/>
+      <c r="U3" s="59"/>
+      <c r="V3" s="59"/>
+      <c r="W3" s="59"/>
+      <c r="X3" s="59"/>
+      <c r="Y3" s="59"/>
+      <c r="Z3" s="59"/>
+      <c r="AA3" s="59"/>
     </row>
     <row r="4" spans="1:27" ht="15" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="24" t="s">
-        <v>41</v>
-      </c>
+      <c r="B4" s="24"/>
       <c r="C4" s="3" t="s">
         <v>25</v>
       </c>
       <c r="D4" s="6">
-        <v>43031</v>
+        <v>43038</v>
       </c>
       <c r="E4" s="6">
-        <v>43034</v>
-      </c>
-      <c r="F4" s="65">
+        <v>43042</v>
+      </c>
+      <c r="F4" s="56">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G4" s="19"/>
-      <c r="H4" s="62"/>
+      <c r="H4" s="53"/>
       <c r="L4" s="25"/>
       <c r="M4" s="26"/>
       <c r="N4" s="26"/>
@@ -2225,19 +2235,21 @@
       <c r="B5" s="17">
         <v>10</v>
       </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="59">
+      <c r="C5" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="50">
         <v>43038</v>
       </c>
-      <c r="E5" s="59">
+      <c r="E5" s="50">
         <v>43044</v>
       </c>
-      <c r="F5" s="65">
+      <c r="F5" s="56">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="G5" s="29"/>
-      <c r="H5" s="62"/>
+      <c r="H5" s="53"/>
       <c r="L5" s="25"/>
       <c r="M5" s="26"/>
       <c r="N5" s="26"/>
@@ -2262,19 +2274,21 @@
       <c r="B6" s="24">
         <v>10</v>
       </c>
-      <c r="C6" s="24"/>
-      <c r="D6" s="60">
+      <c r="C6" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="51">
         <v>43038</v>
       </c>
-      <c r="E6" s="60">
+      <c r="E6" s="51">
         <v>43051</v>
       </c>
-      <c r="F6" s="65">
+      <c r="F6" s="56">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="G6" s="29"/>
-      <c r="H6" s="62"/>
+      <c r="H6" s="53"/>
       <c r="L6" s="30"/>
       <c r="M6" s="26"/>
       <c r="N6" s="26"/>
@@ -2299,19 +2313,21 @@
       <c r="B7" s="17">
         <v>10</v>
       </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="59">
+      <c r="C7" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="50">
         <v>43038</v>
       </c>
-      <c r="E7" s="59">
+      <c r="E7" s="50">
         <v>43044</v>
       </c>
-      <c r="F7" s="65">
+      <c r="F7" s="56">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="G7" s="29"/>
-      <c r="H7" s="62"/>
+      <c r="H7" s="53"/>
       <c r="L7" s="25"/>
       <c r="M7" s="33"/>
       <c r="N7" s="33"/>
@@ -2329,33 +2345,20 @@
       <c r="Z7" s="23"/>
       <c r="AA7" s="23"/>
     </row>
-    <row r="8" spans="1:27" ht="15" customHeight="1">
-      <c r="A8" s="35" t="s">
-        <v>29</v>
-      </c>
-      <c r="B8" s="24">
-        <v>10</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="60">
-        <v>43045</v>
-      </c>
-      <c r="E8" s="60">
-        <v>43062</v>
-      </c>
-      <c r="F8" s="65">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="G8" s="36"/>
-      <c r="H8" s="37"/>
+    <row r="8" spans="1:27" s="49" customFormat="1" ht="15" customHeight="1">
+      <c r="A8" s="40"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="53"/>
       <c r="L8" s="25"/>
       <c r="M8" s="33"/>
       <c r="N8" s="33"/>
       <c r="O8" s="27"/>
-      <c r="P8" s="28"/>
+      <c r="P8" s="34"/>
       <c r="Q8" s="23"/>
       <c r="R8" s="23"/>
       <c r="S8" s="23"/>
@@ -2369,26 +2372,27 @@
       <c r="AA8" s="23"/>
     </row>
     <row r="9" spans="1:27" ht="15" customHeight="1">
-      <c r="A9" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" s="17">
-        <v>5</v>
-      </c>
-      <c r="C9" s="2" t="s">
+      <c r="A9" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="24">
+        <v>10</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="59">
+      <c r="D9" s="51">
         <v>43045</v>
       </c>
-      <c r="E9" s="59">
+      <c r="E9" s="51">
         <v>43062</v>
       </c>
-      <c r="F9" s="65">
+      <c r="F9" s="56">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="G9" s="36"/>
+      <c r="H9" s="37"/>
       <c r="L9" s="25"/>
       <c r="M9" s="33"/>
       <c r="N9" s="33"/>
@@ -2407,25 +2411,26 @@
       <c r="AA9" s="23"/>
     </row>
     <row r="10" spans="1:27" ht="15" customHeight="1">
-      <c r="A10" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" s="24">
-        <v>10</v>
-      </c>
-      <c r="C10" s="24"/>
-      <c r="D10" s="60">
+      <c r="A10" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="17">
+        <v>5</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="50">
         <v>43045</v>
       </c>
-      <c r="E10" s="60">
+      <c r="E10" s="50">
         <v>43062</v>
       </c>
-      <c r="F10" s="65">
-        <f t="shared" si="0"/>
+      <c r="F10" s="17">
         <v>17</v>
       </c>
-      <c r="G10" s="29"/>
-      <c r="L10" s="39"/>
+      <c r="G10" s="36"/>
+      <c r="L10" s="25"/>
       <c r="M10" s="33"/>
       <c r="N10" s="33"/>
       <c r="O10" s="27"/>
@@ -2443,25 +2448,27 @@
       <c r="AA10" s="23"/>
     </row>
     <row r="11" spans="1:27" ht="15" customHeight="1">
-      <c r="A11" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" s="17">
+      <c r="A11" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="24">
         <v>10</v>
       </c>
-      <c r="C11" s="17"/>
-      <c r="D11" s="59">
+      <c r="C11" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="51">
         <v>43045</v>
       </c>
-      <c r="E11" s="59">
+      <c r="E11" s="51">
         <v>43062</v>
       </c>
-      <c r="F11" s="65">
-        <f>E11 - D11</f>
+      <c r="F11" s="56">
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="G11" s="29"/>
-      <c r="L11" s="25"/>
+      <c r="L11" s="39"/>
       <c r="M11" s="33"/>
       <c r="N11" s="33"/>
       <c r="O11" s="27"/>
@@ -2479,18 +2486,30 @@
       <c r="AA11" s="23"/>
     </row>
     <row r="12" spans="1:27" ht="15" customHeight="1">
-      <c r="A12" s="40"/>
-      <c r="B12" s="40"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="40"/>
+      <c r="A12" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="17">
+        <v>10</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="50">
+        <v>43045</v>
+      </c>
+      <c r="E12" s="50">
+        <v>43062</v>
+      </c>
+      <c r="F12" s="17">
+        <v>17</v>
+      </c>
+      <c r="G12" s="29"/>
       <c r="L12" s="25"/>
       <c r="M12" s="33"/>
       <c r="N12" s="33"/>
       <c r="O12" s="27"/>
-      <c r="P12" s="34"/>
+      <c r="P12" s="28"/>
       <c r="Q12" s="23"/>
       <c r="R12" s="23"/>
       <c r="S12" s="23"/>
@@ -2503,48 +2522,50 @@
       <c r="Z12" s="23"/>
       <c r="AA12" s="23"/>
     </row>
-    <row r="13" spans="1:27" ht="15" customHeight="1">
-      <c r="A13" s="41" t="s">
+    <row r="13" spans="1:27" s="65" customFormat="1" ht="15" customHeight="1">
+      <c r="A13" s="63" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="17">
+      <c r="B13" s="64">
         <v>15</v>
       </c>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
+      <c r="C13" s="64" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="64"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="64"/>
       <c r="G13" s="29"/>
-      <c r="L13" s="25"/>
-      <c r="M13" s="33"/>
-      <c r="N13" s="33"/>
-      <c r="O13" s="27"/>
-      <c r="P13" s="34"/>
-      <c r="Q13" s="23"/>
-      <c r="R13" s="23"/>
-      <c r="S13" s="23"/>
-      <c r="T13" s="23"/>
-      <c r="U13" s="23"/>
-      <c r="V13" s="23"/>
-      <c r="W13" s="23"/>
-      <c r="X13" s="23"/>
-      <c r="Y13" s="23"/>
-      <c r="Z13" s="23"/>
-      <c r="AA13" s="23"/>
+      <c r="L13" s="66"/>
+      <c r="M13" s="67"/>
+      <c r="N13" s="67"/>
+      <c r="O13" s="68"/>
+      <c r="P13" s="69"/>
+      <c r="Q13" s="70"/>
+      <c r="R13" s="70"/>
+      <c r="S13" s="70"/>
+      <c r="T13" s="70"/>
+      <c r="U13" s="70"/>
+      <c r="V13" s="70"/>
+      <c r="W13" s="70"/>
+      <c r="X13" s="70"/>
+      <c r="Y13" s="70"/>
+      <c r="Z13" s="70"/>
+      <c r="AA13" s="70"/>
     </row>
     <row r="14" spans="1:27" ht="15" customHeight="1">
-      <c r="A14" s="42" t="s">
+      <c r="A14" s="72" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="24">
+      <c r="B14" s="73">
         <v>20</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
+      <c r="C14" s="74" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="73"/>
+      <c r="E14" s="73"/>
+      <c r="F14" s="73"/>
       <c r="G14" s="36"/>
       <c r="L14" s="25"/>
       <c r="M14" s="33"/>
@@ -2563,50 +2584,56 @@
       <c r="Z14" s="23"/>
       <c r="AA14" s="23"/>
     </row>
-    <row r="15" spans="1:27" ht="15" customHeight="1">
-      <c r="A15" s="43" t="s">
+    <row r="15" spans="1:27" s="65" customFormat="1" ht="15" customHeight="1">
+      <c r="A15" s="71" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="17">
+      <c r="B15" s="64">
         <v>15</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="36"/>
-      <c r="L15" s="25"/>
-      <c r="M15" s="33"/>
-      <c r="N15" s="33"/>
-      <c r="O15" s="27"/>
-      <c r="P15" s="34"/>
-      <c r="Q15" s="23"/>
-      <c r="R15" s="23"/>
-      <c r="S15" s="23"/>
-      <c r="T15" s="23"/>
-      <c r="U15" s="23"/>
-      <c r="V15" s="23"/>
-      <c r="W15" s="23"/>
-      <c r="X15" s="23"/>
-      <c r="Y15" s="23"/>
-      <c r="Z15" s="23"/>
-      <c r="AA15" s="23"/>
+      <c r="D15" s="64"/>
+      <c r="E15" s="64"/>
+      <c r="F15" s="64"/>
+      <c r="G15" s="29"/>
+      <c r="L15" s="66"/>
+      <c r="M15" s="67"/>
+      <c r="N15" s="67"/>
+      <c r="O15" s="68"/>
+      <c r="P15" s="69"/>
+      <c r="Q15" s="70"/>
+      <c r="R15" s="70"/>
+      <c r="S15" s="70"/>
+      <c r="T15" s="70"/>
+      <c r="U15" s="70"/>
+      <c r="V15" s="70"/>
+      <c r="W15" s="70"/>
+      <c r="X15" s="70"/>
+      <c r="Y15" s="70"/>
+      <c r="Z15" s="70"/>
+      <c r="AA15" s="70"/>
     </row>
     <row r="16" spans="1:27" ht="15" customHeight="1">
-      <c r="A16" s="24"/>
-      <c r="B16" s="24"/>
-      <c r="C16" s="24"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="29"/>
-      <c r="L16" s="44"/>
-      <c r="M16" s="33"/>
-      <c r="N16" s="33"/>
+      <c r="A16" s="74" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="75">
+        <v>15</v>
+      </c>
+      <c r="C16" s="74" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="75"/>
+      <c r="E16" s="75"/>
+      <c r="F16" s="75"/>
+      <c r="G16" s="36"/>
+      <c r="L16" s="25"/>
+      <c r="M16" s="26"/>
+      <c r="N16" s="26"/>
       <c r="O16" s="27"/>
-      <c r="P16" s="34"/>
+      <c r="P16" s="28"/>
       <c r="Q16" s="23"/>
       <c r="R16" s="23"/>
       <c r="S16" s="23"/>
@@ -2620,24 +2647,18 @@
       <c r="AA16" s="23"/>
     </row>
     <row r="17" spans="1:27" ht="15" customHeight="1">
-      <c r="A17" s="41" t="s">
-        <v>37</v>
-      </c>
-      <c r="B17" s="45">
-        <v>10</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D17" s="45"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="45"/>
-      <c r="G17" s="36"/>
-      <c r="L17" s="25"/>
-      <c r="M17" s="26"/>
-      <c r="N17" s="26"/>
+      <c r="A17" s="42"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
+      <c r="L17" s="34"/>
+      <c r="M17" s="33"/>
+      <c r="N17" s="33"/>
       <c r="O17" s="27"/>
-      <c r="P17" s="28"/>
+      <c r="P17" s="34"/>
       <c r="Q17" s="23"/>
       <c r="R17" s="23"/>
       <c r="S17" s="23"/>
@@ -2651,13 +2672,19 @@
       <c r="AA17" s="23"/>
     </row>
     <row r="18" spans="1:27" ht="15" customHeight="1">
-      <c r="A18" s="46"/>
-      <c r="B18" s="40"/>
-      <c r="C18" s="40"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="40"/>
+      <c r="A18" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="41">
+        <v>10</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="36"/>
       <c r="L18" s="34"/>
       <c r="M18" s="33"/>
       <c r="N18" s="33"/>
@@ -2676,18 +2703,24 @@
       <c r="AA18" s="23"/>
     </row>
     <row r="19" spans="1:27" ht="15" customHeight="1">
-      <c r="A19" s="47"/>
-      <c r="B19" s="24"/>
-      <c r="C19" s="24"/>
+      <c r="A19" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="24">
+        <v>10</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="D19" s="24"/>
       <c r="E19" s="24"/>
       <c r="F19" s="24"/>
-      <c r="G19" s="29"/>
-      <c r="L19" s="28"/>
+      <c r="G19" s="36"/>
+      <c r="L19" s="34"/>
       <c r="M19" s="33"/>
       <c r="N19" s="33"/>
       <c r="O19" s="27"/>
-      <c r="P19" s="28"/>
+      <c r="P19" s="34"/>
       <c r="Q19" s="23"/>
       <c r="R19" s="23"/>
       <c r="S19" s="23"/>
@@ -2701,18 +2734,14 @@
       <c r="AA19" s="23"/>
     </row>
     <row r="20" spans="1:27" ht="15" customHeight="1">
-      <c r="A20" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B20" s="45"/>
-      <c r="C20" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" s="45"/>
-      <c r="E20" s="45"/>
-      <c r="F20" s="45"/>
+      <c r="A20" s="41"/>
+      <c r="B20" s="41"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="41"/>
       <c r="G20" s="36"/>
-      <c r="L20" s="34"/>
+      <c r="L20" s="28"/>
       <c r="M20" s="33"/>
       <c r="N20" s="33"/>
       <c r="O20" s="27"/>
@@ -2730,18 +2759,14 @@
       <c r="AA20" s="23"/>
     </row>
     <row r="21" spans="1:27" ht="15" customHeight="1">
-      <c r="A21" s="48" t="s">
-        <v>40</v>
-      </c>
+      <c r="A21" s="24"/>
       <c r="B21" s="24"/>
-      <c r="C21" s="3" t="s">
-        <v>25</v>
-      </c>
+      <c r="C21" s="24"/>
       <c r="D21" s="24"/>
       <c r="E21" s="24"/>
       <c r="F21" s="24"/>
-      <c r="G21" s="36"/>
-      <c r="L21" s="34"/>
+      <c r="G21" s="29"/>
+      <c r="L21" s="28"/>
       <c r="M21" s="33"/>
       <c r="N21" s="33"/>
       <c r="O21" s="27"/>
@@ -2759,14 +2784,14 @@
       <c r="AA21" s="23"/>
     </row>
     <row r="22" spans="1:27" ht="15" customHeight="1">
-      <c r="A22" s="45"/>
-      <c r="B22" s="45"/>
-      <c r="C22" s="45"/>
-      <c r="D22" s="45"/>
-      <c r="E22" s="45"/>
-      <c r="F22" s="45"/>
-      <c r="G22" s="36"/>
-      <c r="L22" s="28"/>
+      <c r="A22" s="41"/>
+      <c r="B22" s="41"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="29"/>
+      <c r="L22" s="34"/>
       <c r="M22" s="33"/>
       <c r="N22" s="33"/>
       <c r="O22" s="27"/>
@@ -2791,9 +2816,9 @@
       <c r="E23" s="24"/>
       <c r="F23" s="24"/>
       <c r="G23" s="29"/>
-      <c r="L23" s="28"/>
-      <c r="M23" s="33"/>
-      <c r="N23" s="33"/>
+      <c r="L23" s="34"/>
+      <c r="M23" s="34"/>
+      <c r="N23" s="34"/>
       <c r="O23" s="27"/>
       <c r="P23" s="34"/>
       <c r="Q23" s="23"/>
@@ -2809,16 +2834,16 @@
       <c r="AA23" s="23"/>
     </row>
     <row r="24" spans="1:27" ht="15" customHeight="1">
-      <c r="A24" s="45"/>
-      <c r="B24" s="45"/>
-      <c r="C24" s="45"/>
-      <c r="D24" s="45"/>
-      <c r="E24" s="45"/>
-      <c r="F24" s="45"/>
+      <c r="A24" s="17"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
       <c r="G24" s="29"/>
       <c r="L24" s="34"/>
-      <c r="M24" s="33"/>
-      <c r="N24" s="33"/>
+      <c r="M24" s="34"/>
+      <c r="N24" s="34"/>
       <c r="O24" s="27"/>
       <c r="P24" s="34"/>
       <c r="Q24" s="23"/>
@@ -2845,7 +2870,7 @@
       <c r="M25" s="34"/>
       <c r="N25" s="34"/>
       <c r="O25" s="27"/>
-      <c r="P25" s="34"/>
+      <c r="P25" s="23"/>
       <c r="Q25" s="23"/>
       <c r="R25" s="23"/>
       <c r="S25" s="23"/>
@@ -2869,8 +2894,8 @@
       <c r="L26" s="34"/>
       <c r="M26" s="34"/>
       <c r="N26" s="34"/>
-      <c r="O26" s="27"/>
-      <c r="P26" s="34"/>
+      <c r="O26" s="44"/>
+      <c r="P26" s="23"/>
       <c r="Q26" s="23"/>
       <c r="R26" s="23"/>
       <c r="S26" s="23"/>
@@ -2884,17 +2909,17 @@
       <c r="AA26" s="23"/>
     </row>
     <row r="27" spans="1:27" ht="15" customHeight="1">
-      <c r="A27" s="24"/>
-      <c r="B27" s="24"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="29"/>
-      <c r="L27" s="34"/>
-      <c r="M27" s="34"/>
-      <c r="N27" s="34"/>
-      <c r="O27" s="27"/>
+      <c r="A27" s="45"/>
+      <c r="B27" s="45"/>
+      <c r="C27" s="45"/>
+      <c r="D27" s="45"/>
+      <c r="E27" s="45"/>
+      <c r="F27" s="45"/>
+      <c r="G27" s="46"/>
+      <c r="L27" s="23"/>
+      <c r="M27" s="23"/>
+      <c r="N27" s="23"/>
+      <c r="O27" s="23"/>
       <c r="P27" s="23"/>
       <c r="Q27" s="23"/>
       <c r="R27" s="23"/>
@@ -2909,17 +2934,17 @@
       <c r="AA27" s="23"/>
     </row>
     <row r="28" spans="1:27" ht="15" customHeight="1">
-      <c r="A28" s="17"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="29"/>
-      <c r="L28" s="34"/>
-      <c r="M28" s="34"/>
-      <c r="N28" s="34"/>
-      <c r="O28" s="49"/>
+      <c r="A28" s="47"/>
+      <c r="B28" s="47"/>
+      <c r="C28" s="47"/>
+      <c r="D28" s="47"/>
+      <c r="E28" s="47"/>
+      <c r="F28" s="47"/>
+      <c r="G28" s="46"/>
+      <c r="L28" s="23"/>
+      <c r="M28" s="23"/>
+      <c r="N28" s="23"/>
+      <c r="O28" s="23"/>
       <c r="P28" s="23"/>
       <c r="Q28" s="23"/>
       <c r="R28" s="23"/>
@@ -2934,53 +2959,53 @@
       <c r="AA28" s="23"/>
     </row>
     <row r="29" spans="1:27" ht="15" customHeight="1">
-      <c r="A29" s="50"/>
-      <c r="B29" s="50"/>
-      <c r="C29" s="50"/>
-      <c r="D29" s="50"/>
-      <c r="E29" s="50"/>
-      <c r="F29" s="50"/>
-      <c r="G29" s="51"/>
+      <c r="A29" s="24"/>
+      <c r="B29" s="24"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="29"/>
       <c r="L29" s="23"/>
       <c r="M29" s="23"/>
       <c r="N29" s="23"/>
       <c r="O29" s="23"/>
       <c r="P29" s="23"/>
-      <c r="Q29" s="23"/>
-      <c r="R29" s="23"/>
-      <c r="S29" s="23"/>
-      <c r="T29" s="23"/>
-      <c r="U29" s="23"/>
-      <c r="V29" s="23"/>
-      <c r="W29" s="23"/>
-      <c r="X29" s="23"/>
-      <c r="Y29" s="23"/>
-      <c r="Z29" s="23"/>
+      <c r="Q29" s="48"/>
+      <c r="R29" s="62"/>
+      <c r="S29" s="59"/>
+      <c r="T29" s="59"/>
+      <c r="U29" s="59"/>
+      <c r="V29" s="59"/>
+      <c r="W29" s="61"/>
+      <c r="X29" s="59"/>
+      <c r="Y29" s="59"/>
+      <c r="Z29" s="59"/>
       <c r="AA29" s="23"/>
     </row>
     <row r="30" spans="1:27" ht="15" customHeight="1">
-      <c r="A30" s="52"/>
-      <c r="B30" s="52"/>
-      <c r="C30" s="52"/>
-      <c r="D30" s="52"/>
-      <c r="E30" s="52"/>
-      <c r="F30" s="52"/>
-      <c r="G30" s="51"/>
+      <c r="A30" s="17"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="29"/>
       <c r="L30" s="23"/>
       <c r="M30" s="23"/>
       <c r="N30" s="23"/>
       <c r="O30" s="23"/>
       <c r="P30" s="23"/>
       <c r="Q30" s="23"/>
-      <c r="R30" s="23"/>
-      <c r="S30" s="23"/>
-      <c r="T30" s="23"/>
-      <c r="U30" s="23"/>
-      <c r="V30" s="23"/>
-      <c r="W30" s="23"/>
-      <c r="X30" s="23"/>
-      <c r="Y30" s="23"/>
-      <c r="Z30" s="23"/>
+      <c r="R30" s="58"/>
+      <c r="S30" s="59"/>
+      <c r="T30" s="59"/>
+      <c r="U30" s="59"/>
+      <c r="V30" s="59"/>
+      <c r="W30" s="58"/>
+      <c r="X30" s="59"/>
+      <c r="Y30" s="59"/>
+      <c r="Z30" s="59"/>
       <c r="AA30" s="23"/>
     </row>
     <row r="31" spans="1:27" ht="15" customHeight="1">
@@ -2996,16 +3021,16 @@
       <c r="N31" s="23"/>
       <c r="O31" s="23"/>
       <c r="P31" s="23"/>
-      <c r="Q31" s="53"/>
-      <c r="R31" s="58"/>
-      <c r="S31" s="55"/>
-      <c r="T31" s="55"/>
-      <c r="U31" s="55"/>
-      <c r="V31" s="55"/>
-      <c r="W31" s="57"/>
-      <c r="X31" s="55"/>
-      <c r="Y31" s="55"/>
-      <c r="Z31" s="55"/>
+      <c r="Q31" s="23"/>
+      <c r="R31" s="23"/>
+      <c r="S31" s="23"/>
+      <c r="T31" s="23"/>
+      <c r="U31" s="23"/>
+      <c r="V31" s="23"/>
+      <c r="W31" s="23"/>
+      <c r="X31" s="23"/>
+      <c r="Y31" s="23"/>
+      <c r="Z31" s="23"/>
       <c r="AA31" s="23"/>
     </row>
     <row r="32" spans="1:27" ht="15" customHeight="1">
@@ -3016,24 +3041,12 @@
       <c r="E32" s="17"/>
       <c r="F32" s="17"/>
       <c r="G32" s="29"/>
-      <c r="L32" s="23"/>
-      <c r="M32" s="23"/>
-      <c r="N32" s="23"/>
-      <c r="O32" s="23"/>
-      <c r="P32" s="23"/>
-      <c r="Q32" s="23"/>
-      <c r="R32" s="54"/>
-      <c r="S32" s="55"/>
-      <c r="T32" s="55"/>
-      <c r="U32" s="55"/>
-      <c r="V32" s="55"/>
-      <c r="W32" s="54"/>
-      <c r="X32" s="55"/>
-      <c r="Y32" s="55"/>
-      <c r="Z32" s="55"/>
-      <c r="AA32" s="23"/>
-    </row>
-    <row r="33" spans="1:27" ht="15" customHeight="1">
+      <c r="R32" s="23"/>
+      <c r="S32" s="23"/>
+      <c r="T32" s="23"/>
+      <c r="U32" s="23"/>
+    </row>
+    <row r="33" spans="1:21" ht="15" customHeight="1">
       <c r="A33" s="24"/>
       <c r="B33" s="24"/>
       <c r="C33" s="24"/>
@@ -3041,6 +3054,10 @@
       <c r="E33" s="24"/>
       <c r="F33" s="24"/>
       <c r="G33" s="29"/>
+      <c r="H33" s="23"/>
+      <c r="I33" s="23"/>
+      <c r="J33" s="23"/>
+      <c r="K33" s="23"/>
       <c r="L33" s="23"/>
       <c r="M33" s="23"/>
       <c r="N33" s="23"/>
@@ -3051,14 +3068,8 @@
       <c r="S33" s="23"/>
       <c r="T33" s="23"/>
       <c r="U33" s="23"/>
-      <c r="V33" s="23"/>
-      <c r="W33" s="23"/>
-      <c r="X33" s="23"/>
-      <c r="Y33" s="23"/>
-      <c r="Z33" s="23"/>
-      <c r="AA33" s="23"/>
-    </row>
-    <row r="34" spans="1:27" ht="15" customHeight="1">
+    </row>
+    <row r="34" spans="1:21" ht="15" customHeight="1">
       <c r="A34" s="17"/>
       <c r="B34" s="17"/>
       <c r="C34" s="17"/>
@@ -3066,67 +3077,31 @@
       <c r="E34" s="17"/>
       <c r="F34" s="17"/>
       <c r="G34" s="29"/>
+      <c r="H34" s="23"/>
+      <c r="I34" s="23"/>
+      <c r="J34" s="23"/>
+      <c r="K34" s="23"/>
+      <c r="L34" s="23"/>
+      <c r="M34" s="23"/>
+      <c r="N34" s="23"/>
+      <c r="O34" s="23"/>
+      <c r="P34" s="23"/>
+      <c r="Q34" s="23"/>
       <c r="R34" s="23"/>
       <c r="S34" s="23"/>
       <c r="T34" s="23"/>
       <c r="U34" s="23"/>
     </row>
-    <row r="35" spans="1:27" ht="15" customHeight="1">
-      <c r="A35" s="24"/>
-      <c r="B35" s="24"/>
-      <c r="C35" s="24"/>
-      <c r="D35" s="24"/>
-      <c r="E35" s="24"/>
-      <c r="F35" s="24"/>
-      <c r="G35" s="29"/>
-      <c r="H35" s="23"/>
-      <c r="I35" s="23"/>
-      <c r="J35" s="23"/>
-      <c r="K35" s="23"/>
-      <c r="L35" s="23"/>
-      <c r="M35" s="23"/>
-      <c r="N35" s="23"/>
-      <c r="O35" s="23"/>
-      <c r="P35" s="23"/>
-      <c r="Q35" s="23"/>
-      <c r="R35" s="23"/>
-      <c r="S35" s="23"/>
-      <c r="T35" s="23"/>
-      <c r="U35" s="23"/>
-    </row>
-    <row r="36" spans="1:27" ht="15" customHeight="1">
-      <c r="A36" s="17"/>
-      <c r="B36" s="17"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="17"/>
-      <c r="G36" s="29"/>
-      <c r="H36" s="23"/>
-      <c r="I36" s="23"/>
-      <c r="J36" s="23"/>
-      <c r="K36" s="23"/>
-      <c r="L36" s="23"/>
-      <c r="M36" s="23"/>
-      <c r="N36" s="23"/>
-      <c r="O36" s="23"/>
-      <c r="P36" s="23"/>
-      <c r="Q36" s="23"/>
-      <c r="R36" s="23"/>
-      <c r="S36" s="23"/>
-      <c r="T36" s="23"/>
-      <c r="U36" s="23"/>
-    </row>
-    <row r="42" spans="1:27" ht="15" customHeight="1">
-      <c r="J42" s="8"/>
+    <row r="40" spans="1:21" ht="15" customHeight="1">
+      <c r="J40" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="W32:Z32"/>
-    <mergeCell ref="R32:V32"/>
+    <mergeCell ref="W30:Z30"/>
+    <mergeCell ref="R30:V30"/>
     <mergeCell ref="T3:AA3"/>
-    <mergeCell ref="W31:Z31"/>
-    <mergeCell ref="R31:V31"/>
+    <mergeCell ref="W29:Z29"/>
+    <mergeCell ref="R29:V29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Gantt Chart Proper.xlsx
+++ b/Gantt Chart Proper.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21525" windowHeight="11850"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11850"/>
   </bookViews>
   <sheets>
     <sheet name="Basic Manual Gantt Chart" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="42">
   <si>
     <t>Task Name</t>
   </si>
@@ -143,6 +143,9 @@
   </si>
   <si>
     <t>Evaluate the Final Solution</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -332,7 +335,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -415,6 +418,19 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -428,19 +444,11 @@
     <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -590,12 +598,21 @@
                   <c:v>43045</c:v>
                 </c:pt>
                 <c:pt idx="8" formatCode="m/d/yyyy">
-                  <c:v>43045</c:v>
+                  <c:v>43052</c:v>
                 </c:pt>
                 <c:pt idx="9" formatCode="m/d/yyyy">
-                  <c:v>43045</c:v>
+                  <c:v>43058</c:v>
                 </c:pt>
                 <c:pt idx="10" formatCode="m/d/yyyy">
+                  <c:v>43062</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="m/d/yyyy">
+                  <c:v>43064</c:v>
+                </c:pt>
+                <c:pt idx="12" formatCode="m/d/yyyy">
+                  <c:v>43073</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="m/d/yyyy">
                   <c:v>43045</c:v>
                 </c:pt>
               </c:numCache>
@@ -701,16 +718,25 @@
                   <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="8" formatCode="General">
-                  <c:v>17</c:v>
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="10" formatCode="General">
-                  <c:v>17</c:v>
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>86</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -789,7 +815,7 @@
         <c:axId val="537967864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="43031"/>
+          <c:min val="43038"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1740,16 +1766,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>106455</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>129987</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>799182</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>8759</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1568824</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>44824</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>806824</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>114096</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2071,8 +2097,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA40"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" customHeight="1"/>
@@ -2182,20 +2208,22 @@
       <c r="Q3" s="21"/>
       <c r="R3" s="22"/>
       <c r="S3" s="23"/>
-      <c r="T3" s="60"/>
-      <c r="U3" s="59"/>
-      <c r="V3" s="59"/>
-      <c r="W3" s="59"/>
-      <c r="X3" s="59"/>
-      <c r="Y3" s="59"/>
-      <c r="Z3" s="59"/>
-      <c r="AA3" s="59"/>
+      <c r="T3" s="73"/>
+      <c r="U3" s="72"/>
+      <c r="V3" s="72"/>
+      <c r="W3" s="72"/>
+      <c r="X3" s="72"/>
+      <c r="Y3" s="72"/>
+      <c r="Z3" s="72"/>
+      <c r="AA3" s="72"/>
     </row>
     <row r="4" spans="1:27" ht="15" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="24"/>
+      <c r="B4" s="78" t="s">
+        <v>41</v>
+      </c>
       <c r="C4" s="3" t="s">
         <v>25</v>
       </c>
@@ -2385,11 +2413,11 @@
         <v>43045</v>
       </c>
       <c r="E9" s="51">
-        <v>43062</v>
+        <v>43051</v>
       </c>
       <c r="F9" s="56">
-        <f t="shared" si="0"/>
-        <v>17</v>
+        <f>E9-D9</f>
+        <v>6</v>
       </c>
       <c r="G9" s="36"/>
       <c r="H9" s="37"/>
@@ -2421,13 +2449,14 @@
         <v>23</v>
       </c>
       <c r="D10" s="50">
-        <v>43045</v>
+        <v>43052</v>
       </c>
       <c r="E10" s="50">
-        <v>43062</v>
-      </c>
-      <c r="F10" s="17">
-        <v>17</v>
+        <v>43057</v>
+      </c>
+      <c r="F10" s="56">
+        <f t="shared" ref="F10:F15" si="1">E10-D10</f>
+        <v>5</v>
       </c>
       <c r="G10" s="36"/>
       <c r="L10" s="25"/>
@@ -2458,14 +2487,14 @@
         <v>7</v>
       </c>
       <c r="D11" s="51">
-        <v>43045</v>
+        <v>43058</v>
       </c>
       <c r="E11" s="51">
-        <v>43062</v>
+        <v>43068</v>
       </c>
       <c r="F11" s="56">
-        <f t="shared" si="0"/>
-        <v>17</v>
+        <f t="shared" si="1"/>
+        <v>10</v>
       </c>
       <c r="G11" s="29"/>
       <c r="L11" s="39"/>
@@ -2496,13 +2525,14 @@
         <v>7</v>
       </c>
       <c r="D12" s="50">
-        <v>43045</v>
+        <v>43062</v>
       </c>
       <c r="E12" s="50">
-        <v>43062</v>
-      </c>
-      <c r="F12" s="17">
-        <v>17</v>
+        <v>43068</v>
+      </c>
+      <c r="F12" s="56">
+        <f t="shared" si="1"/>
+        <v>6</v>
       </c>
       <c r="G12" s="29"/>
       <c r="L12" s="25"/>
@@ -2522,50 +2552,64 @@
       <c r="Z12" s="23"/>
       <c r="AA12" s="23"/>
     </row>
-    <row r="13" spans="1:27" s="65" customFormat="1" ht="15" customHeight="1">
-      <c r="A13" s="63" t="s">
+    <row r="13" spans="1:27" s="60" customFormat="1" ht="15" customHeight="1">
+      <c r="A13" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="64">
+      <c r="B13" s="59">
         <v>15</v>
       </c>
-      <c r="C13" s="64" t="s">
+      <c r="C13" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="64"/>
-      <c r="E13" s="64"/>
-      <c r="F13" s="64"/>
+      <c r="D13" s="76">
+        <v>43064</v>
+      </c>
+      <c r="E13" s="76">
+        <v>43073</v>
+      </c>
+      <c r="F13" s="56">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
       <c r="G13" s="29"/>
-      <c r="L13" s="66"/>
-      <c r="M13" s="67"/>
-      <c r="N13" s="67"/>
-      <c r="O13" s="68"/>
-      <c r="P13" s="69"/>
-      <c r="Q13" s="70"/>
-      <c r="R13" s="70"/>
-      <c r="S13" s="70"/>
-      <c r="T13" s="70"/>
-      <c r="U13" s="70"/>
-      <c r="V13" s="70"/>
-      <c r="W13" s="70"/>
-      <c r="X13" s="70"/>
-      <c r="Y13" s="70"/>
-      <c r="Z13" s="70"/>
-      <c r="AA13" s="70"/>
+      <c r="L13" s="61"/>
+      <c r="M13" s="62"/>
+      <c r="N13" s="62"/>
+      <c r="O13" s="63"/>
+      <c r="P13" s="64"/>
+      <c r="Q13" s="65"/>
+      <c r="R13" s="65"/>
+      <c r="S13" s="65"/>
+      <c r="T13" s="65"/>
+      <c r="U13" s="65"/>
+      <c r="V13" s="65"/>
+      <c r="W13" s="65"/>
+      <c r="X13" s="65"/>
+      <c r="Y13" s="65"/>
+      <c r="Z13" s="65"/>
+      <c r="AA13" s="65"/>
     </row>
     <row r="14" spans="1:27" ht="15" customHeight="1">
-      <c r="A14" s="72" t="s">
+      <c r="A14" s="67" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="73">
+      <c r="B14" s="68">
         <v>20</v>
       </c>
-      <c r="C14" s="74" t="s">
+      <c r="C14" s="69" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="73"/>
-      <c r="E14" s="73"/>
-      <c r="F14" s="73"/>
+      <c r="D14" s="77">
+        <v>43073</v>
+      </c>
+      <c r="E14" s="77">
+        <v>43131</v>
+      </c>
+      <c r="F14" s="56">
+        <f t="shared" si="1"/>
+        <v>58</v>
+      </c>
       <c r="G14" s="36"/>
       <c r="L14" s="25"/>
       <c r="M14" s="33"/>
@@ -2584,50 +2628,57 @@
       <c r="Z14" s="23"/>
       <c r="AA14" s="23"/>
     </row>
-    <row r="15" spans="1:27" s="65" customFormat="1" ht="15" customHeight="1">
-      <c r="A15" s="71" t="s">
+    <row r="15" spans="1:27" s="60" customFormat="1" ht="15" customHeight="1">
+      <c r="A15" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="64">
+      <c r="B15" s="59">
         <v>15</v>
       </c>
-      <c r="C15" s="63" t="s">
+      <c r="C15" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="64"/>
-      <c r="E15" s="64"/>
-      <c r="F15" s="64"/>
+      <c r="D15" s="76">
+        <v>43045</v>
+      </c>
+      <c r="E15" s="76">
+        <v>43131</v>
+      </c>
+      <c r="F15" s="56">
+        <f t="shared" si="1"/>
+        <v>86</v>
+      </c>
       <c r="G15" s="29"/>
-      <c r="L15" s="66"/>
-      <c r="M15" s="67"/>
-      <c r="N15" s="67"/>
-      <c r="O15" s="68"/>
-      <c r="P15" s="69"/>
-      <c r="Q15" s="70"/>
-      <c r="R15" s="70"/>
-      <c r="S15" s="70"/>
-      <c r="T15" s="70"/>
-      <c r="U15" s="70"/>
-      <c r="V15" s="70"/>
-      <c r="W15" s="70"/>
-      <c r="X15" s="70"/>
-      <c r="Y15" s="70"/>
-      <c r="Z15" s="70"/>
-      <c r="AA15" s="70"/>
+      <c r="L15" s="61"/>
+      <c r="M15" s="62"/>
+      <c r="N15" s="62"/>
+      <c r="O15" s="63"/>
+      <c r="P15" s="64"/>
+      <c r="Q15" s="65"/>
+      <c r="R15" s="65"/>
+      <c r="S15" s="65"/>
+      <c r="T15" s="65"/>
+      <c r="U15" s="65"/>
+      <c r="V15" s="65"/>
+      <c r="W15" s="65"/>
+      <c r="X15" s="65"/>
+      <c r="Y15" s="65"/>
+      <c r="Z15" s="65"/>
+      <c r="AA15" s="65"/>
     </row>
     <row r="16" spans="1:27" ht="15" customHeight="1">
-      <c r="A16" s="74" t="s">
+      <c r="A16" s="69" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="75">
+      <c r="B16" s="70">
         <v>15</v>
       </c>
-      <c r="C16" s="74" t="s">
+      <c r="C16" s="69" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="75"/>
-      <c r="E16" s="75"/>
-      <c r="F16" s="75"/>
+      <c r="D16" s="70"/>
+      <c r="E16" s="70"/>
+      <c r="F16" s="17"/>
       <c r="G16" s="36"/>
       <c r="L16" s="25"/>
       <c r="M16" s="26"/>
@@ -2972,15 +3023,15 @@
       <c r="O29" s="23"/>
       <c r="P29" s="23"/>
       <c r="Q29" s="48"/>
-      <c r="R29" s="62"/>
-      <c r="S29" s="59"/>
-      <c r="T29" s="59"/>
-      <c r="U29" s="59"/>
-      <c r="V29" s="59"/>
-      <c r="W29" s="61"/>
-      <c r="X29" s="59"/>
-      <c r="Y29" s="59"/>
-      <c r="Z29" s="59"/>
+      <c r="R29" s="75"/>
+      <c r="S29" s="72"/>
+      <c r="T29" s="72"/>
+      <c r="U29" s="72"/>
+      <c r="V29" s="72"/>
+      <c r="W29" s="74"/>
+      <c r="X29" s="72"/>
+      <c r="Y29" s="72"/>
+      <c r="Z29" s="72"/>
       <c r="AA29" s="23"/>
     </row>
     <row r="30" spans="1:27" ht="15" customHeight="1">
@@ -2997,15 +3048,15 @@
       <c r="O30" s="23"/>
       <c r="P30" s="23"/>
       <c r="Q30" s="23"/>
-      <c r="R30" s="58"/>
-      <c r="S30" s="59"/>
-      <c r="T30" s="59"/>
-      <c r="U30" s="59"/>
-      <c r="V30" s="59"/>
-      <c r="W30" s="58"/>
-      <c r="X30" s="59"/>
-      <c r="Y30" s="59"/>
-      <c r="Z30" s="59"/>
+      <c r="R30" s="71"/>
+      <c r="S30" s="72"/>
+      <c r="T30" s="72"/>
+      <c r="U30" s="72"/>
+      <c r="V30" s="72"/>
+      <c r="W30" s="71"/>
+      <c r="X30" s="72"/>
+      <c r="Y30" s="72"/>
+      <c r="Z30" s="72"/>
       <c r="AA30" s="23"/>
     </row>
     <row r="31" spans="1:27" ht="15" customHeight="1">

--- a/Gantt Chart Proper.xlsx
+++ b/Gantt Chart Proper.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11850"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="13140"/>
   </bookViews>
   <sheets>
     <sheet name="Basic Manual Gantt Chart" sheetId="1" r:id="rId1"/>
@@ -152,9 +152,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
     <numFmt numFmtId="165" formatCode="d&quot;/&quot;m&quot;/&quot;yy"/>
+    <numFmt numFmtId="169" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
   <fonts count="14">
     <font>
@@ -335,14 +336,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -366,7 +366,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -408,14 +407,11 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -431,6 +427,9 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -444,11 +443,18 @@
     <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="169" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="169" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="169" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="169" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="4" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -574,9 +580,9 @@
             <c:numRef>
               <c:f>'Basic Manual Gantt Chart'!$D$2:$D$34</c:f>
               <c:numCache>
-                <c:formatCode>dd/mm/yyyy</c:formatCode>
+                <c:formatCode>dd/mm/yyyy;@</c:formatCode>
                 <c:ptCount val="33"/>
-                <c:pt idx="0" formatCode="m/d/yyyy">
+                <c:pt idx="0">
                   <c:v>43038</c:v>
                 </c:pt>
                 <c:pt idx="1">
@@ -585,34 +591,34 @@
                 <c:pt idx="2">
                   <c:v>43038</c:v>
                 </c:pt>
-                <c:pt idx="3" formatCode="m/d/yyyy">
+                <c:pt idx="3">
                   <c:v>43038</c:v>
                 </c:pt>
-                <c:pt idx="4" formatCode="m/d/yyyy">
+                <c:pt idx="4">
                   <c:v>43038</c:v>
                 </c:pt>
-                <c:pt idx="5" formatCode="m/d/yyyy">
+                <c:pt idx="5">
                   <c:v>43038</c:v>
                 </c:pt>
-                <c:pt idx="7" formatCode="m/d/yyyy">
+                <c:pt idx="7">
                   <c:v>43045</c:v>
                 </c:pt>
-                <c:pt idx="8" formatCode="m/d/yyyy">
+                <c:pt idx="8">
                   <c:v>43052</c:v>
                 </c:pt>
-                <c:pt idx="9" formatCode="m/d/yyyy">
+                <c:pt idx="9">
                   <c:v>43058</c:v>
                 </c:pt>
-                <c:pt idx="10" formatCode="m/d/yyyy">
+                <c:pt idx="10">
                   <c:v>43062</c:v>
                 </c:pt>
-                <c:pt idx="11" formatCode="m/d/yyyy">
+                <c:pt idx="11">
                   <c:v>43064</c:v>
                 </c:pt>
-                <c:pt idx="12" formatCode="m/d/yyyy">
+                <c:pt idx="12">
                   <c:v>43073</c:v>
                 </c:pt>
-                <c:pt idx="13" formatCode="m/d/yyyy">
+                <c:pt idx="13">
                   <c:v>43045</c:v>
                 </c:pt>
               </c:numCache>
@@ -833,7 +839,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:numFmt formatCode="dd/mm/yyyy;@" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2098,7 +2104,7 @@
   <dimension ref="A1:AA40"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" customHeight="1"/>
@@ -2106,8 +2112,8 @@
     <col min="1" max="1" width="48.5" customWidth="1"/>
     <col min="2" max="2" width="16.25" customWidth="1"/>
     <col min="3" max="3" width="11.25" customWidth="1"/>
-    <col min="4" max="4" width="18.625" customWidth="1"/>
-    <col min="5" max="5" width="18.5" customWidth="1"/>
+    <col min="4" max="4" width="18.625" style="83" customWidth="1"/>
+    <col min="5" max="5" width="18.5" style="83" customWidth="1"/>
     <col min="6" max="6" width="13.875" customWidth="1"/>
     <col min="7" max="7" width="11.25" customWidth="1"/>
     <col min="8" max="8" width="32.5" customWidth="1"/>
@@ -2124,19 +2130,19 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="72" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="54" t="s">
+      <c r="F1" s="50" t="s">
         <v>14</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="52"/>
+      <c r="H1" s="48"/>
     </row>
     <row r="2" spans="1:27" ht="15" customHeight="1">
       <c r="A2" s="3" t="s">
@@ -2148,1003 +2154,1003 @@
       <c r="C2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="55">
+      <c r="D2" s="74">
         <v>43038</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="74">
         <v>43042</v>
       </c>
-      <c r="F2" s="56">
+      <c r="F2" s="51">
         <f>E2 - D2</f>
         <v>4</v>
       </c>
-      <c r="G2" s="7"/>
-      <c r="H2" s="53"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="L2" s="16"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="16"/>
-      <c r="S2" s="16"/>
-      <c r="T2" s="16"/>
-      <c r="U2" s="16"/>
-      <c r="V2" s="16"/>
-      <c r="W2" s="16"/>
-      <c r="X2" s="16"/>
-      <c r="Y2" s="16"/>
-      <c r="Z2" s="16"/>
-      <c r="AA2" s="16"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="L2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="15"/>
+      <c r="S2" s="15"/>
+      <c r="T2" s="15"/>
+      <c r="U2" s="15"/>
+      <c r="V2" s="15"/>
+      <c r="W2" s="15"/>
+      <c r="X2" s="15"/>
+      <c r="Y2" s="15"/>
+      <c r="Z2" s="15"/>
+      <c r="AA2" s="15"/>
     </row>
     <row r="3" spans="1:27" ht="15" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="17">
+      <c r="B3" s="16">
         <v>10</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="18">
+      <c r="D3" s="75">
         <v>43038</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="74">
         <v>43042</v>
       </c>
-      <c r="F3" s="56">
-        <f t="shared" ref="F3:F11" si="0">E3 - D3</f>
+      <c r="F3" s="51">
+        <f t="shared" ref="F3:F7" si="0">E3 - D3</f>
         <v>4</v>
       </c>
-      <c r="G3" s="19"/>
-      <c r="H3" s="57"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="20"/>
-      <c r="N3" s="20"/>
-      <c r="O3" s="20"/>
-      <c r="P3" s="21"/>
-      <c r="Q3" s="21"/>
-      <c r="R3" s="22"/>
-      <c r="S3" s="23"/>
-      <c r="T3" s="73"/>
-      <c r="U3" s="72"/>
-      <c r="V3" s="72"/>
-      <c r="W3" s="72"/>
-      <c r="X3" s="72"/>
-      <c r="Y3" s="72"/>
-      <c r="Z3" s="72"/>
-      <c r="AA3" s="72"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="52"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="19"/>
+      <c r="R3" s="20"/>
+      <c r="S3" s="21"/>
+      <c r="T3" s="69"/>
+      <c r="U3" s="68"/>
+      <c r="V3" s="68"/>
+      <c r="W3" s="68"/>
+      <c r="X3" s="68"/>
+      <c r="Y3" s="68"/>
+      <c r="Z3" s="68"/>
+      <c r="AA3" s="68"/>
     </row>
     <row r="4" spans="1:27" ht="15" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="78" t="s">
+      <c r="B4" s="66" t="s">
         <v>41</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="74">
         <v>43038</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="74">
         <v>43042</v>
       </c>
-      <c r="F4" s="56">
+      <c r="F4" s="51">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G4" s="19"/>
-      <c r="H4" s="53"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="26"/>
-      <c r="N4" s="26"/>
-      <c r="O4" s="27"/>
-      <c r="P4" s="28"/>
-      <c r="Q4" s="23"/>
-      <c r="R4" s="23"/>
-      <c r="S4" s="23"/>
-      <c r="T4" s="23"/>
-      <c r="U4" s="23"/>
-      <c r="V4" s="23"/>
-      <c r="W4" s="23"/>
-      <c r="X4" s="23"/>
-      <c r="Y4" s="23"/>
-      <c r="Z4" s="23"/>
-      <c r="AA4" s="23"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="49"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="25"/>
+      <c r="P4" s="26"/>
+      <c r="Q4" s="21"/>
+      <c r="R4" s="21"/>
+      <c r="S4" s="21"/>
+      <c r="T4" s="21"/>
+      <c r="U4" s="21"/>
+      <c r="V4" s="21"/>
+      <c r="W4" s="21"/>
+      <c r="X4" s="21"/>
+      <c r="Y4" s="21"/>
+      <c r="Z4" s="21"/>
+      <c r="AA4" s="21"/>
     </row>
     <row r="5" spans="1:27" ht="15" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="17">
+      <c r="B5" s="16">
         <v>10</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="50">
+      <c r="D5" s="76">
         <v>43038</v>
       </c>
-      <c r="E5" s="50">
+      <c r="E5" s="76">
         <v>43044</v>
       </c>
-      <c r="F5" s="56">
+      <c r="F5" s="51">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="G5" s="29"/>
-      <c r="H5" s="53"/>
-      <c r="L5" s="25"/>
-      <c r="M5" s="26"/>
-      <c r="N5" s="26"/>
-      <c r="O5" s="27"/>
-      <c r="P5" s="28"/>
-      <c r="Q5" s="23"/>
-      <c r="R5" s="23"/>
-      <c r="S5" s="23"/>
-      <c r="T5" s="23"/>
-      <c r="U5" s="23"/>
-      <c r="V5" s="23"/>
-      <c r="W5" s="23"/>
-      <c r="X5" s="23"/>
-      <c r="Y5" s="23"/>
-      <c r="Z5" s="23"/>
-      <c r="AA5" s="23"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="49"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="24"/>
+      <c r="N5" s="24"/>
+      <c r="O5" s="25"/>
+      <c r="P5" s="26"/>
+      <c r="Q5" s="21"/>
+      <c r="R5" s="21"/>
+      <c r="S5" s="21"/>
+      <c r="T5" s="21"/>
+      <c r="U5" s="21"/>
+      <c r="V5" s="21"/>
+      <c r="W5" s="21"/>
+      <c r="X5" s="21"/>
+      <c r="Y5" s="21"/>
+      <c r="Z5" s="21"/>
+      <c r="AA5" s="21"/>
     </row>
     <row r="6" spans="1:27" ht="15" customHeight="1">
       <c r="A6" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="24">
+      <c r="B6" s="22">
         <v>10</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="51">
+      <c r="D6" s="77">
         <v>43038</v>
       </c>
-      <c r="E6" s="51">
+      <c r="E6" s="77">
         <v>43051</v>
       </c>
-      <c r="F6" s="56">
+      <c r="F6" s="51">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="G6" s="29"/>
-      <c r="H6" s="53"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="26"/>
-      <c r="N6" s="26"/>
-      <c r="O6" s="31"/>
-      <c r="P6" s="28"/>
-      <c r="Q6" s="23"/>
-      <c r="R6" s="23"/>
-      <c r="S6" s="23"/>
-      <c r="T6" s="23"/>
-      <c r="U6" s="23"/>
-      <c r="V6" s="23"/>
-      <c r="W6" s="23"/>
-      <c r="X6" s="23"/>
-      <c r="Y6" s="23"/>
-      <c r="Z6" s="23"/>
-      <c r="AA6" s="23"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="49"/>
+      <c r="L6" s="28"/>
+      <c r="M6" s="24"/>
+      <c r="N6" s="24"/>
+      <c r="O6" s="29"/>
+      <c r="P6" s="26"/>
+      <c r="Q6" s="21"/>
+      <c r="R6" s="21"/>
+      <c r="S6" s="21"/>
+      <c r="T6" s="21"/>
+      <c r="U6" s="21"/>
+      <c r="V6" s="21"/>
+      <c r="W6" s="21"/>
+      <c r="X6" s="21"/>
+      <c r="Y6" s="21"/>
+      <c r="Z6" s="21"/>
+      <c r="AA6" s="21"/>
     </row>
     <row r="7" spans="1:27" ht="15" customHeight="1">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="17">
+      <c r="B7" s="16">
         <v>10</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="50">
+      <c r="D7" s="76">
         <v>43038</v>
       </c>
-      <c r="E7" s="50">
+      <c r="E7" s="76">
         <v>43044</v>
       </c>
-      <c r="F7" s="56">
+      <c r="F7" s="51">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="G7" s="29"/>
-      <c r="H7" s="53"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="33"/>
-      <c r="N7" s="33"/>
-      <c r="O7" s="27"/>
-      <c r="P7" s="34"/>
-      <c r="Q7" s="23"/>
-      <c r="R7" s="23"/>
-      <c r="S7" s="23"/>
-      <c r="T7" s="23"/>
-      <c r="U7" s="23"/>
-      <c r="V7" s="23"/>
-      <c r="W7" s="23"/>
-      <c r="X7" s="23"/>
-      <c r="Y7" s="23"/>
-      <c r="Z7" s="23"/>
-      <c r="AA7" s="23"/>
-    </row>
-    <row r="8" spans="1:27" s="49" customFormat="1" ht="15" customHeight="1">
-      <c r="A8" s="40"/>
-      <c r="B8" s="40"/>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="53"/>
-      <c r="L8" s="25"/>
-      <c r="M8" s="33"/>
-      <c r="N8" s="33"/>
-      <c r="O8" s="27"/>
-      <c r="P8" s="34"/>
-      <c r="Q8" s="23"/>
-      <c r="R8" s="23"/>
-      <c r="S8" s="23"/>
-      <c r="T8" s="23"/>
-      <c r="U8" s="23"/>
-      <c r="V8" s="23"/>
-      <c r="W8" s="23"/>
-      <c r="X8" s="23"/>
-      <c r="Y8" s="23"/>
-      <c r="Z8" s="23"/>
-      <c r="AA8" s="23"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="49"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="31"/>
+      <c r="N7" s="31"/>
+      <c r="O7" s="25"/>
+      <c r="P7" s="32"/>
+      <c r="Q7" s="21"/>
+      <c r="R7" s="21"/>
+      <c r="S7" s="21"/>
+      <c r="T7" s="21"/>
+      <c r="U7" s="21"/>
+      <c r="V7" s="21"/>
+      <c r="W7" s="21"/>
+      <c r="X7" s="21"/>
+      <c r="Y7" s="21"/>
+      <c r="Z7" s="21"/>
+      <c r="AA7" s="21"/>
+    </row>
+    <row r="8" spans="1:27" s="47" customFormat="1" ht="15" customHeight="1">
+      <c r="A8" s="38"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="78"/>
+      <c r="E8" s="78"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="49"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="31"/>
+      <c r="N8" s="31"/>
+      <c r="O8" s="25"/>
+      <c r="P8" s="32"/>
+      <c r="Q8" s="21"/>
+      <c r="R8" s="21"/>
+      <c r="S8" s="21"/>
+      <c r="T8" s="21"/>
+      <c r="U8" s="21"/>
+      <c r="V8" s="21"/>
+      <c r="W8" s="21"/>
+      <c r="X8" s="21"/>
+      <c r="Y8" s="21"/>
+      <c r="Z8" s="21"/>
+      <c r="AA8" s="21"/>
     </row>
     <row r="9" spans="1:27" ht="15" customHeight="1">
-      <c r="A9" s="35" t="s">
+      <c r="A9" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="24">
+      <c r="B9" s="22">
         <v>10</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="51">
+      <c r="D9" s="77">
         <v>43045</v>
       </c>
-      <c r="E9" s="51">
+      <c r="E9" s="77">
         <v>43051</v>
       </c>
-      <c r="F9" s="56">
+      <c r="F9" s="51">
         <f>E9-D9</f>
         <v>6</v>
       </c>
-      <c r="G9" s="36"/>
-      <c r="H9" s="37"/>
-      <c r="L9" s="25"/>
-      <c r="M9" s="33"/>
-      <c r="N9" s="33"/>
-      <c r="O9" s="27"/>
-      <c r="P9" s="28"/>
-      <c r="Q9" s="23"/>
-      <c r="R9" s="23"/>
-      <c r="S9" s="23"/>
-      <c r="T9" s="23"/>
-      <c r="U9" s="23"/>
-      <c r="V9" s="23"/>
-      <c r="W9" s="23"/>
-      <c r="X9" s="23"/>
-      <c r="Y9" s="23"/>
-      <c r="Z9" s="23"/>
-      <c r="AA9" s="23"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="35"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="31"/>
+      <c r="N9" s="31"/>
+      <c r="O9" s="25"/>
+      <c r="P9" s="26"/>
+      <c r="Q9" s="21"/>
+      <c r="R9" s="21"/>
+      <c r="S9" s="21"/>
+      <c r="T9" s="21"/>
+      <c r="U9" s="21"/>
+      <c r="V9" s="21"/>
+      <c r="W9" s="21"/>
+      <c r="X9" s="21"/>
+      <c r="Y9" s="21"/>
+      <c r="Z9" s="21"/>
+      <c r="AA9" s="21"/>
     </row>
     <row r="10" spans="1:27" ht="15" customHeight="1">
-      <c r="A10" s="32" t="s">
+      <c r="A10" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="17">
+      <c r="B10" s="16">
         <v>5</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="50">
+      <c r="D10" s="76">
         <v>43052</v>
       </c>
-      <c r="E10" s="50">
+      <c r="E10" s="76">
         <v>43057</v>
       </c>
-      <c r="F10" s="56">
+      <c r="F10" s="51">
         <f t="shared" ref="F10:F15" si="1">E10-D10</f>
         <v>5</v>
       </c>
-      <c r="G10" s="36"/>
-      <c r="L10" s="25"/>
-      <c r="M10" s="33"/>
-      <c r="N10" s="33"/>
-      <c r="O10" s="27"/>
-      <c r="P10" s="28"/>
-      <c r="Q10" s="23"/>
-      <c r="R10" s="23"/>
-      <c r="S10" s="23"/>
-      <c r="T10" s="23"/>
-      <c r="U10" s="23"/>
-      <c r="V10" s="23"/>
-      <c r="W10" s="23"/>
-      <c r="X10" s="23"/>
-      <c r="Y10" s="23"/>
-      <c r="Z10" s="23"/>
-      <c r="AA10" s="23"/>
+      <c r="G10" s="34"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="31"/>
+      <c r="N10" s="31"/>
+      <c r="O10" s="25"/>
+      <c r="P10" s="26"/>
+      <c r="Q10" s="21"/>
+      <c r="R10" s="21"/>
+      <c r="S10" s="21"/>
+      <c r="T10" s="21"/>
+      <c r="U10" s="21"/>
+      <c r="V10" s="21"/>
+      <c r="W10" s="21"/>
+      <c r="X10" s="21"/>
+      <c r="Y10" s="21"/>
+      <c r="Z10" s="21"/>
+      <c r="AA10" s="21"/>
     </row>
     <row r="11" spans="1:27" ht="15" customHeight="1">
-      <c r="A11" s="38" t="s">
+      <c r="A11" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="24">
+      <c r="B11" s="22">
         <v>10</v>
       </c>
-      <c r="C11" s="24" t="s">
+      <c r="C11" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="51">
+      <c r="D11" s="77">
         <v>43058</v>
       </c>
-      <c r="E11" s="51">
+      <c r="E11" s="77">
         <v>43068</v>
       </c>
-      <c r="F11" s="56">
+      <c r="F11" s="51">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="G11" s="29"/>
-      <c r="L11" s="39"/>
-      <c r="M11" s="33"/>
-      <c r="N11" s="33"/>
-      <c r="O11" s="27"/>
-      <c r="P11" s="28"/>
-      <c r="Q11" s="23"/>
-      <c r="R11" s="23"/>
-      <c r="S11" s="23"/>
-      <c r="T11" s="23"/>
-      <c r="U11" s="23"/>
-      <c r="V11" s="23"/>
-      <c r="W11" s="23"/>
-      <c r="X11" s="23"/>
-      <c r="Y11" s="23"/>
-      <c r="Z11" s="23"/>
-      <c r="AA11" s="23"/>
+      <c r="G11" s="27"/>
+      <c r="L11" s="37"/>
+      <c r="M11" s="31"/>
+      <c r="N11" s="31"/>
+      <c r="O11" s="25"/>
+      <c r="P11" s="26"/>
+      <c r="Q11" s="21"/>
+      <c r="R11" s="21"/>
+      <c r="S11" s="21"/>
+      <c r="T11" s="21"/>
+      <c r="U11" s="21"/>
+      <c r="V11" s="21"/>
+      <c r="W11" s="21"/>
+      <c r="X11" s="21"/>
+      <c r="Y11" s="21"/>
+      <c r="Z11" s="21"/>
+      <c r="AA11" s="21"/>
     </row>
     <row r="12" spans="1:27" ht="15" customHeight="1">
-      <c r="A12" s="32" t="s">
+      <c r="A12" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="17">
+      <c r="B12" s="16">
         <v>10</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="50">
+      <c r="D12" s="76">
         <v>43062</v>
       </c>
-      <c r="E12" s="50">
+      <c r="E12" s="76">
         <v>43068</v>
       </c>
-      <c r="F12" s="56">
+      <c r="F12" s="51">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="G12" s="29"/>
-      <c r="L12" s="25"/>
-      <c r="M12" s="33"/>
-      <c r="N12" s="33"/>
-      <c r="O12" s="27"/>
-      <c r="P12" s="28"/>
-      <c r="Q12" s="23"/>
-      <c r="R12" s="23"/>
-      <c r="S12" s="23"/>
-      <c r="T12" s="23"/>
-      <c r="U12" s="23"/>
-      <c r="V12" s="23"/>
-      <c r="W12" s="23"/>
-      <c r="X12" s="23"/>
-      <c r="Y12" s="23"/>
-      <c r="Z12" s="23"/>
-      <c r="AA12" s="23"/>
-    </row>
-    <row r="13" spans="1:27" s="60" customFormat="1" ht="15" customHeight="1">
-      <c r="A13" s="58" t="s">
+      <c r="G12" s="27"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="31"/>
+      <c r="N12" s="31"/>
+      <c r="O12" s="25"/>
+      <c r="P12" s="26"/>
+      <c r="Q12" s="21"/>
+      <c r="R12" s="21"/>
+      <c r="S12" s="21"/>
+      <c r="T12" s="21"/>
+      <c r="U12" s="21"/>
+      <c r="V12" s="21"/>
+      <c r="W12" s="21"/>
+      <c r="X12" s="21"/>
+      <c r="Y12" s="21"/>
+      <c r="Z12" s="21"/>
+      <c r="AA12" s="21"/>
+    </row>
+    <row r="13" spans="1:27" s="55" customFormat="1" ht="15" customHeight="1">
+      <c r="A13" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="59">
+      <c r="B13" s="54">
         <v>15</v>
       </c>
-      <c r="C13" s="59" t="s">
+      <c r="C13" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="76">
+      <c r="D13" s="79">
         <v>43064</v>
       </c>
-      <c r="E13" s="76">
+      <c r="E13" s="79">
         <v>43073</v>
       </c>
-      <c r="F13" s="56">
+      <c r="F13" s="51">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="G13" s="29"/>
-      <c r="L13" s="61"/>
-      <c r="M13" s="62"/>
-      <c r="N13" s="62"/>
-      <c r="O13" s="63"/>
-      <c r="P13" s="64"/>
-      <c r="Q13" s="65"/>
-      <c r="R13" s="65"/>
-      <c r="S13" s="65"/>
-      <c r="T13" s="65"/>
-      <c r="U13" s="65"/>
-      <c r="V13" s="65"/>
-      <c r="W13" s="65"/>
-      <c r="X13" s="65"/>
-      <c r="Y13" s="65"/>
-      <c r="Z13" s="65"/>
-      <c r="AA13" s="65"/>
+      <c r="G13" s="27"/>
+      <c r="L13" s="56"/>
+      <c r="M13" s="57"/>
+      <c r="N13" s="57"/>
+      <c r="O13" s="58"/>
+      <c r="P13" s="59"/>
+      <c r="Q13" s="60"/>
+      <c r="R13" s="60"/>
+      <c r="S13" s="60"/>
+      <c r="T13" s="60"/>
+      <c r="U13" s="60"/>
+      <c r="V13" s="60"/>
+      <c r="W13" s="60"/>
+      <c r="X13" s="60"/>
+      <c r="Y13" s="60"/>
+      <c r="Z13" s="60"/>
+      <c r="AA13" s="60"/>
     </row>
     <row r="14" spans="1:27" ht="15" customHeight="1">
-      <c r="A14" s="67" t="s">
+      <c r="A14" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="68">
+      <c r="B14" s="63">
         <v>20</v>
       </c>
-      <c r="C14" s="69" t="s">
+      <c r="C14" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="77">
+      <c r="D14" s="80">
         <v>43073</v>
       </c>
-      <c r="E14" s="77">
+      <c r="E14" s="80">
         <v>43131</v>
       </c>
-      <c r="F14" s="56">
+      <c r="F14" s="51">
         <f t="shared" si="1"/>
         <v>58</v>
       </c>
-      <c r="G14" s="36"/>
-      <c r="L14" s="25"/>
-      <c r="M14" s="33"/>
-      <c r="N14" s="33"/>
-      <c r="O14" s="27"/>
-      <c r="P14" s="34"/>
-      <c r="Q14" s="23"/>
-      <c r="R14" s="23"/>
-      <c r="S14" s="23"/>
-      <c r="T14" s="23"/>
-      <c r="U14" s="23"/>
-      <c r="V14" s="23"/>
-      <c r="W14" s="23"/>
-      <c r="X14" s="23"/>
-      <c r="Y14" s="23"/>
-      <c r="Z14" s="23"/>
-      <c r="AA14" s="23"/>
-    </row>
-    <row r="15" spans="1:27" s="60" customFormat="1" ht="15" customHeight="1">
-      <c r="A15" s="66" t="s">
+      <c r="G14" s="34"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="31"/>
+      <c r="N14" s="31"/>
+      <c r="O14" s="25"/>
+      <c r="P14" s="32"/>
+      <c r="Q14" s="21"/>
+      <c r="R14" s="21"/>
+      <c r="S14" s="21"/>
+      <c r="T14" s="21"/>
+      <c r="U14" s="21"/>
+      <c r="V14" s="21"/>
+      <c r="W14" s="21"/>
+      <c r="X14" s="21"/>
+      <c r="Y14" s="21"/>
+      <c r="Z14" s="21"/>
+      <c r="AA14" s="21"/>
+    </row>
+    <row r="15" spans="1:27" s="55" customFormat="1" ht="15" customHeight="1">
+      <c r="A15" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="59">
+      <c r="B15" s="54">
         <v>15</v>
       </c>
-      <c r="C15" s="58" t="s">
+      <c r="C15" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="76">
+      <c r="D15" s="79">
         <v>43045</v>
       </c>
-      <c r="E15" s="76">
+      <c r="E15" s="79">
         <v>43131</v>
       </c>
-      <c r="F15" s="56">
+      <c r="F15" s="51">
         <f t="shared" si="1"/>
         <v>86</v>
       </c>
-      <c r="G15" s="29"/>
-      <c r="L15" s="61"/>
-      <c r="M15" s="62"/>
-      <c r="N15" s="62"/>
-      <c r="O15" s="63"/>
-      <c r="P15" s="64"/>
-      <c r="Q15" s="65"/>
-      <c r="R15" s="65"/>
-      <c r="S15" s="65"/>
-      <c r="T15" s="65"/>
-      <c r="U15" s="65"/>
-      <c r="V15" s="65"/>
-      <c r="W15" s="65"/>
-      <c r="X15" s="65"/>
-      <c r="Y15" s="65"/>
-      <c r="Z15" s="65"/>
-      <c r="AA15" s="65"/>
+      <c r="G15" s="27"/>
+      <c r="L15" s="56"/>
+      <c r="M15" s="57"/>
+      <c r="N15" s="57"/>
+      <c r="O15" s="58"/>
+      <c r="P15" s="59"/>
+      <c r="Q15" s="60"/>
+      <c r="R15" s="60"/>
+      <c r="S15" s="60"/>
+      <c r="T15" s="60"/>
+      <c r="U15" s="60"/>
+      <c r="V15" s="60"/>
+      <c r="W15" s="60"/>
+      <c r="X15" s="60"/>
+      <c r="Y15" s="60"/>
+      <c r="Z15" s="60"/>
+      <c r="AA15" s="60"/>
     </row>
     <row r="16" spans="1:27" ht="15" customHeight="1">
-      <c r="A16" s="69" t="s">
+      <c r="A16" s="64" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="70">
+      <c r="B16" s="65">
         <v>15</v>
       </c>
-      <c r="C16" s="69" t="s">
+      <c r="C16" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="70"/>
-      <c r="E16" s="70"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="36"/>
-      <c r="L16" s="25"/>
-      <c r="M16" s="26"/>
-      <c r="N16" s="26"/>
-      <c r="O16" s="27"/>
-      <c r="P16" s="28"/>
-      <c r="Q16" s="23"/>
-      <c r="R16" s="23"/>
-      <c r="S16" s="23"/>
-      <c r="T16" s="23"/>
-      <c r="U16" s="23"/>
-      <c r="V16" s="23"/>
-      <c r="W16" s="23"/>
-      <c r="X16" s="23"/>
-      <c r="Y16" s="23"/>
-      <c r="Z16" s="23"/>
-      <c r="AA16" s="23"/>
+      <c r="D16" s="81"/>
+      <c r="E16" s="81"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="34"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="24"/>
+      <c r="N16" s="24"/>
+      <c r="O16" s="25"/>
+      <c r="P16" s="26"/>
+      <c r="Q16" s="21"/>
+      <c r="R16" s="21"/>
+      <c r="S16" s="21"/>
+      <c r="T16" s="21"/>
+      <c r="U16" s="21"/>
+      <c r="V16" s="21"/>
+      <c r="W16" s="21"/>
+      <c r="X16" s="21"/>
+      <c r="Y16" s="21"/>
+      <c r="Z16" s="21"/>
+      <c r="AA16" s="21"/>
     </row>
     <row r="17" spans="1:27" ht="15" customHeight="1">
-      <c r="A17" s="42"/>
-      <c r="B17" s="40"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="40"/>
-      <c r="L17" s="34"/>
-      <c r="M17" s="33"/>
-      <c r="N17" s="33"/>
-      <c r="O17" s="27"/>
-      <c r="P17" s="34"/>
-      <c r="Q17" s="23"/>
-      <c r="R17" s="23"/>
-      <c r="S17" s="23"/>
-      <c r="T17" s="23"/>
-      <c r="U17" s="23"/>
-      <c r="V17" s="23"/>
-      <c r="W17" s="23"/>
-      <c r="X17" s="23"/>
-      <c r="Y17" s="23"/>
-      <c r="Z17" s="23"/>
-      <c r="AA17" s="23"/>
+      <c r="A17" s="40"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="78"/>
+      <c r="E17" s="78"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
+      <c r="L17" s="32"/>
+      <c r="M17" s="31"/>
+      <c r="N17" s="31"/>
+      <c r="O17" s="25"/>
+      <c r="P17" s="32"/>
+      <c r="Q17" s="21"/>
+      <c r="R17" s="21"/>
+      <c r="S17" s="21"/>
+      <c r="T17" s="21"/>
+      <c r="U17" s="21"/>
+      <c r="V17" s="21"/>
+      <c r="W17" s="21"/>
+      <c r="X17" s="21"/>
+      <c r="Y17" s="21"/>
+      <c r="Z17" s="21"/>
+      <c r="AA17" s="21"/>
     </row>
     <row r="18" spans="1:27" ht="15" customHeight="1">
       <c r="A18" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B18" s="41">
+      <c r="B18" s="39">
         <v>10</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="41"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="36"/>
-      <c r="L18" s="34"/>
-      <c r="M18" s="33"/>
-      <c r="N18" s="33"/>
-      <c r="O18" s="27"/>
-      <c r="P18" s="34"/>
-      <c r="Q18" s="23"/>
-      <c r="R18" s="23"/>
-      <c r="S18" s="23"/>
-      <c r="T18" s="23"/>
-      <c r="U18" s="23"/>
-      <c r="V18" s="23"/>
-      <c r="W18" s="23"/>
-      <c r="X18" s="23"/>
-      <c r="Y18" s="23"/>
-      <c r="Z18" s="23"/>
-      <c r="AA18" s="23"/>
+      <c r="D18" s="82"/>
+      <c r="E18" s="82"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="34"/>
+      <c r="L18" s="32"/>
+      <c r="M18" s="31"/>
+      <c r="N18" s="31"/>
+      <c r="O18" s="25"/>
+      <c r="P18" s="32"/>
+      <c r="Q18" s="21"/>
+      <c r="R18" s="21"/>
+      <c r="S18" s="21"/>
+      <c r="T18" s="21"/>
+      <c r="U18" s="21"/>
+      <c r="V18" s="21"/>
+      <c r="W18" s="21"/>
+      <c r="X18" s="21"/>
+      <c r="Y18" s="21"/>
+      <c r="Z18" s="21"/>
+      <c r="AA18" s="21"/>
     </row>
     <row r="19" spans="1:27" ht="15" customHeight="1">
-      <c r="A19" s="43" t="s">
+      <c r="A19" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="B19" s="24">
+      <c r="B19" s="22">
         <v>10</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="36"/>
-      <c r="L19" s="34"/>
-      <c r="M19" s="33"/>
-      <c r="N19" s="33"/>
-      <c r="O19" s="27"/>
-      <c r="P19" s="34"/>
-      <c r="Q19" s="23"/>
-      <c r="R19" s="23"/>
-      <c r="S19" s="23"/>
-      <c r="T19" s="23"/>
-      <c r="U19" s="23"/>
-      <c r="V19" s="23"/>
-      <c r="W19" s="23"/>
-      <c r="X19" s="23"/>
-      <c r="Y19" s="23"/>
-      <c r="Z19" s="23"/>
-      <c r="AA19" s="23"/>
+      <c r="D19" s="77"/>
+      <c r="E19" s="77"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="34"/>
+      <c r="L19" s="32"/>
+      <c r="M19" s="31"/>
+      <c r="N19" s="31"/>
+      <c r="O19" s="25"/>
+      <c r="P19" s="32"/>
+      <c r="Q19" s="21"/>
+      <c r="R19" s="21"/>
+      <c r="S19" s="21"/>
+      <c r="T19" s="21"/>
+      <c r="U19" s="21"/>
+      <c r="V19" s="21"/>
+      <c r="W19" s="21"/>
+      <c r="X19" s="21"/>
+      <c r="Y19" s="21"/>
+      <c r="Z19" s="21"/>
+      <c r="AA19" s="21"/>
     </row>
     <row r="20" spans="1:27" ht="15" customHeight="1">
-      <c r="A20" s="41"/>
-      <c r="B20" s="41"/>
-      <c r="C20" s="41"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="36"/>
-      <c r="L20" s="28"/>
-      <c r="M20" s="33"/>
-      <c r="N20" s="33"/>
-      <c r="O20" s="27"/>
-      <c r="P20" s="34"/>
-      <c r="Q20" s="23"/>
-      <c r="R20" s="23"/>
-      <c r="S20" s="23"/>
-      <c r="T20" s="23"/>
-      <c r="U20" s="23"/>
-      <c r="V20" s="23"/>
-      <c r="W20" s="23"/>
-      <c r="X20" s="23"/>
-      <c r="Y20" s="23"/>
-      <c r="Z20" s="23"/>
-      <c r="AA20" s="23"/>
+      <c r="A20" s="39"/>
+      <c r="B20" s="39"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="82"/>
+      <c r="E20" s="82"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="34"/>
+      <c r="L20" s="26"/>
+      <c r="M20" s="31"/>
+      <c r="N20" s="31"/>
+      <c r="O20" s="25"/>
+      <c r="P20" s="32"/>
+      <c r="Q20" s="21"/>
+      <c r="R20" s="21"/>
+      <c r="S20" s="21"/>
+      <c r="T20" s="21"/>
+      <c r="U20" s="21"/>
+      <c r="V20" s="21"/>
+      <c r="W20" s="21"/>
+      <c r="X20" s="21"/>
+      <c r="Y20" s="21"/>
+      <c r="Z20" s="21"/>
+      <c r="AA20" s="21"/>
     </row>
     <row r="21" spans="1:27" ht="15" customHeight="1">
-      <c r="A21" s="24"/>
-      <c r="B21" s="24"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="29"/>
-      <c r="L21" s="28"/>
-      <c r="M21" s="33"/>
-      <c r="N21" s="33"/>
-      <c r="O21" s="27"/>
-      <c r="P21" s="34"/>
-      <c r="Q21" s="23"/>
-      <c r="R21" s="23"/>
-      <c r="S21" s="23"/>
-      <c r="T21" s="23"/>
-      <c r="U21" s="23"/>
-      <c r="V21" s="23"/>
-      <c r="W21" s="23"/>
-      <c r="X21" s="23"/>
-      <c r="Y21" s="23"/>
-      <c r="Z21" s="23"/>
-      <c r="AA21" s="23"/>
+      <c r="A21" s="22"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="77"/>
+      <c r="E21" s="77"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="27"/>
+      <c r="L21" s="26"/>
+      <c r="M21" s="31"/>
+      <c r="N21" s="31"/>
+      <c r="O21" s="25"/>
+      <c r="P21" s="32"/>
+      <c r="Q21" s="21"/>
+      <c r="R21" s="21"/>
+      <c r="S21" s="21"/>
+      <c r="T21" s="21"/>
+      <c r="U21" s="21"/>
+      <c r="V21" s="21"/>
+      <c r="W21" s="21"/>
+      <c r="X21" s="21"/>
+      <c r="Y21" s="21"/>
+      <c r="Z21" s="21"/>
+      <c r="AA21" s="21"/>
     </row>
     <row r="22" spans="1:27" ht="15" customHeight="1">
-      <c r="A22" s="41"/>
-      <c r="B22" s="41"/>
-      <c r="C22" s="41"/>
-      <c r="D22" s="41"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="29"/>
-      <c r="L22" s="34"/>
-      <c r="M22" s="33"/>
-      <c r="N22" s="33"/>
-      <c r="O22" s="27"/>
-      <c r="P22" s="34"/>
-      <c r="Q22" s="23"/>
-      <c r="R22" s="23"/>
-      <c r="S22" s="23"/>
-      <c r="T22" s="23"/>
-      <c r="U22" s="23"/>
-      <c r="V22" s="23"/>
-      <c r="W22" s="23"/>
-      <c r="X22" s="23"/>
-      <c r="Y22" s="23"/>
-      <c r="Z22" s="23"/>
-      <c r="AA22" s="23"/>
+      <c r="A22" s="39"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="82"/>
+      <c r="E22" s="82"/>
+      <c r="F22" s="39"/>
+      <c r="G22" s="27"/>
+      <c r="L22" s="32"/>
+      <c r="M22" s="31"/>
+      <c r="N22" s="31"/>
+      <c r="O22" s="25"/>
+      <c r="P22" s="32"/>
+      <c r="Q22" s="21"/>
+      <c r="R22" s="21"/>
+      <c r="S22" s="21"/>
+      <c r="T22" s="21"/>
+      <c r="U22" s="21"/>
+      <c r="V22" s="21"/>
+      <c r="W22" s="21"/>
+      <c r="X22" s="21"/>
+      <c r="Y22" s="21"/>
+      <c r="Z22" s="21"/>
+      <c r="AA22" s="21"/>
     </row>
     <row r="23" spans="1:27" ht="15" customHeight="1">
-      <c r="A23" s="24"/>
-      <c r="B23" s="24"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="29"/>
-      <c r="L23" s="34"/>
-      <c r="M23" s="34"/>
-      <c r="N23" s="34"/>
-      <c r="O23" s="27"/>
-      <c r="P23" s="34"/>
-      <c r="Q23" s="23"/>
-      <c r="R23" s="23"/>
-      <c r="S23" s="23"/>
-      <c r="T23" s="23"/>
-      <c r="U23" s="23"/>
-      <c r="V23" s="23"/>
-      <c r="W23" s="23"/>
-      <c r="X23" s="23"/>
-      <c r="Y23" s="23"/>
-      <c r="Z23" s="23"/>
-      <c r="AA23" s="23"/>
+      <c r="A23" s="22"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="77"/>
+      <c r="E23" s="77"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="27"/>
+      <c r="L23" s="32"/>
+      <c r="M23" s="32"/>
+      <c r="N23" s="32"/>
+      <c r="O23" s="25"/>
+      <c r="P23" s="32"/>
+      <c r="Q23" s="21"/>
+      <c r="R23" s="21"/>
+      <c r="S23" s="21"/>
+      <c r="T23" s="21"/>
+      <c r="U23" s="21"/>
+      <c r="V23" s="21"/>
+      <c r="W23" s="21"/>
+      <c r="X23" s="21"/>
+      <c r="Y23" s="21"/>
+      <c r="Z23" s="21"/>
+      <c r="AA23" s="21"/>
     </row>
     <row r="24" spans="1:27" ht="15" customHeight="1">
-      <c r="A24" s="17"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="29"/>
-      <c r="L24" s="34"/>
-      <c r="M24" s="34"/>
-      <c r="N24" s="34"/>
-      <c r="O24" s="27"/>
-      <c r="P24" s="34"/>
-      <c r="Q24" s="23"/>
-      <c r="R24" s="23"/>
-      <c r="S24" s="23"/>
-      <c r="T24" s="23"/>
-      <c r="U24" s="23"/>
-      <c r="V24" s="23"/>
-      <c r="W24" s="23"/>
-      <c r="X24" s="23"/>
-      <c r="Y24" s="23"/>
-      <c r="Z24" s="23"/>
-      <c r="AA24" s="23"/>
+      <c r="A24" s="16"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="76"/>
+      <c r="E24" s="76"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="27"/>
+      <c r="L24" s="32"/>
+      <c r="M24" s="32"/>
+      <c r="N24" s="32"/>
+      <c r="O24" s="25"/>
+      <c r="P24" s="32"/>
+      <c r="Q24" s="21"/>
+      <c r="R24" s="21"/>
+      <c r="S24" s="21"/>
+      <c r="T24" s="21"/>
+      <c r="U24" s="21"/>
+      <c r="V24" s="21"/>
+      <c r="W24" s="21"/>
+      <c r="X24" s="21"/>
+      <c r="Y24" s="21"/>
+      <c r="Z24" s="21"/>
+      <c r="AA24" s="21"/>
     </row>
     <row r="25" spans="1:27" ht="15" customHeight="1">
-      <c r="A25" s="24"/>
-      <c r="B25" s="24"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="29"/>
-      <c r="L25" s="34"/>
-      <c r="M25" s="34"/>
-      <c r="N25" s="34"/>
-      <c r="O25" s="27"/>
-      <c r="P25" s="23"/>
-      <c r="Q25" s="23"/>
-      <c r="R25" s="23"/>
-      <c r="S25" s="23"/>
-      <c r="T25" s="23"/>
-      <c r="U25" s="23"/>
-      <c r="V25" s="23"/>
-      <c r="W25" s="23"/>
-      <c r="X25" s="23"/>
-      <c r="Y25" s="23"/>
-      <c r="Z25" s="23"/>
-      <c r="AA25" s="23"/>
+      <c r="A25" s="22"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="77"/>
+      <c r="E25" s="77"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="27"/>
+      <c r="L25" s="32"/>
+      <c r="M25" s="32"/>
+      <c r="N25" s="32"/>
+      <c r="O25" s="25"/>
+      <c r="P25" s="21"/>
+      <c r="Q25" s="21"/>
+      <c r="R25" s="21"/>
+      <c r="S25" s="21"/>
+      <c r="T25" s="21"/>
+      <c r="U25" s="21"/>
+      <c r="V25" s="21"/>
+      <c r="W25" s="21"/>
+      <c r="X25" s="21"/>
+      <c r="Y25" s="21"/>
+      <c r="Z25" s="21"/>
+      <c r="AA25" s="21"/>
     </row>
     <row r="26" spans="1:27" ht="15" customHeight="1">
-      <c r="A26" s="17"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="29"/>
-      <c r="L26" s="34"/>
-      <c r="M26" s="34"/>
-      <c r="N26" s="34"/>
-      <c r="O26" s="44"/>
-      <c r="P26" s="23"/>
-      <c r="Q26" s="23"/>
-      <c r="R26" s="23"/>
-      <c r="S26" s="23"/>
-      <c r="T26" s="23"/>
-      <c r="U26" s="23"/>
-      <c r="V26" s="23"/>
-      <c r="W26" s="23"/>
-      <c r="X26" s="23"/>
-      <c r="Y26" s="23"/>
-      <c r="Z26" s="23"/>
-      <c r="AA26" s="23"/>
+      <c r="A26" s="16"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="76"/>
+      <c r="E26" s="76"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="27"/>
+      <c r="L26" s="32"/>
+      <c r="M26" s="32"/>
+      <c r="N26" s="32"/>
+      <c r="O26" s="42"/>
+      <c r="P26" s="21"/>
+      <c r="Q26" s="21"/>
+      <c r="R26" s="21"/>
+      <c r="S26" s="21"/>
+      <c r="T26" s="21"/>
+      <c r="U26" s="21"/>
+      <c r="V26" s="21"/>
+      <c r="W26" s="21"/>
+      <c r="X26" s="21"/>
+      <c r="Y26" s="21"/>
+      <c r="Z26" s="21"/>
+      <c r="AA26" s="21"/>
     </row>
     <row r="27" spans="1:27" ht="15" customHeight="1">
-      <c r="A27" s="45"/>
-      <c r="B27" s="45"/>
-      <c r="C27" s="45"/>
-      <c r="D27" s="45"/>
-      <c r="E27" s="45"/>
-      <c r="F27" s="45"/>
-      <c r="G27" s="46"/>
-      <c r="L27" s="23"/>
-      <c r="M27" s="23"/>
-      <c r="N27" s="23"/>
-      <c r="O27" s="23"/>
-      <c r="P27" s="23"/>
-      <c r="Q27" s="23"/>
-      <c r="R27" s="23"/>
-      <c r="S27" s="23"/>
-      <c r="T27" s="23"/>
-      <c r="U27" s="23"/>
-      <c r="V27" s="23"/>
-      <c r="W27" s="23"/>
-      <c r="X27" s="23"/>
-      <c r="Y27" s="23"/>
-      <c r="Z27" s="23"/>
-      <c r="AA27" s="23"/>
+      <c r="A27" s="43"/>
+      <c r="B27" s="43"/>
+      <c r="C27" s="43"/>
+      <c r="D27" s="77"/>
+      <c r="E27" s="77"/>
+      <c r="F27" s="43"/>
+      <c r="G27" s="44"/>
+      <c r="L27" s="21"/>
+      <c r="M27" s="21"/>
+      <c r="N27" s="21"/>
+      <c r="O27" s="21"/>
+      <c r="P27" s="21"/>
+      <c r="Q27" s="21"/>
+      <c r="R27" s="21"/>
+      <c r="S27" s="21"/>
+      <c r="T27" s="21"/>
+      <c r="U27" s="21"/>
+      <c r="V27" s="21"/>
+      <c r="W27" s="21"/>
+      <c r="X27" s="21"/>
+      <c r="Y27" s="21"/>
+      <c r="Z27" s="21"/>
+      <c r="AA27" s="21"/>
     </row>
     <row r="28" spans="1:27" ht="15" customHeight="1">
-      <c r="A28" s="47"/>
-      <c r="B28" s="47"/>
-      <c r="C28" s="47"/>
-      <c r="D28" s="47"/>
-      <c r="E28" s="47"/>
-      <c r="F28" s="47"/>
-      <c r="G28" s="46"/>
-      <c r="L28" s="23"/>
-      <c r="M28" s="23"/>
-      <c r="N28" s="23"/>
-      <c r="O28" s="23"/>
-      <c r="P28" s="23"/>
-      <c r="Q28" s="23"/>
-      <c r="R28" s="23"/>
-      <c r="S28" s="23"/>
-      <c r="T28" s="23"/>
-      <c r="U28" s="23"/>
-      <c r="V28" s="23"/>
-      <c r="W28" s="23"/>
-      <c r="X28" s="23"/>
-      <c r="Y28" s="23"/>
-      <c r="Z28" s="23"/>
-      <c r="AA28" s="23"/>
+      <c r="A28" s="45"/>
+      <c r="B28" s="45"/>
+      <c r="C28" s="45"/>
+      <c r="D28" s="76"/>
+      <c r="E28" s="76"/>
+      <c r="F28" s="45"/>
+      <c r="G28" s="44"/>
+      <c r="L28" s="21"/>
+      <c r="M28" s="21"/>
+      <c r="N28" s="21"/>
+      <c r="O28" s="21"/>
+      <c r="P28" s="21"/>
+      <c r="Q28" s="21"/>
+      <c r="R28" s="21"/>
+      <c r="S28" s="21"/>
+      <c r="T28" s="21"/>
+      <c r="U28" s="21"/>
+      <c r="V28" s="21"/>
+      <c r="W28" s="21"/>
+      <c r="X28" s="21"/>
+      <c r="Y28" s="21"/>
+      <c r="Z28" s="21"/>
+      <c r="AA28" s="21"/>
     </row>
     <row r="29" spans="1:27" ht="15" customHeight="1">
-      <c r="A29" s="24"/>
-      <c r="B29" s="24"/>
-      <c r="C29" s="24"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="29"/>
-      <c r="L29" s="23"/>
-      <c r="M29" s="23"/>
-      <c r="N29" s="23"/>
-      <c r="O29" s="23"/>
-      <c r="P29" s="23"/>
-      <c r="Q29" s="48"/>
-      <c r="R29" s="75"/>
-      <c r="S29" s="72"/>
-      <c r="T29" s="72"/>
-      <c r="U29" s="72"/>
-      <c r="V29" s="72"/>
-      <c r="W29" s="74"/>
-      <c r="X29" s="72"/>
-      <c r="Y29" s="72"/>
-      <c r="Z29" s="72"/>
-      <c r="AA29" s="23"/>
+      <c r="A29" s="22"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="77"/>
+      <c r="E29" s="77"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="27"/>
+      <c r="L29" s="21"/>
+      <c r="M29" s="21"/>
+      <c r="N29" s="21"/>
+      <c r="O29" s="21"/>
+      <c r="P29" s="21"/>
+      <c r="Q29" s="46"/>
+      <c r="R29" s="71"/>
+      <c r="S29" s="68"/>
+      <c r="T29" s="68"/>
+      <c r="U29" s="68"/>
+      <c r="V29" s="68"/>
+      <c r="W29" s="70"/>
+      <c r="X29" s="68"/>
+      <c r="Y29" s="68"/>
+      <c r="Z29" s="68"/>
+      <c r="AA29" s="21"/>
     </row>
     <row r="30" spans="1:27" ht="15" customHeight="1">
-      <c r="A30" s="17"/>
-      <c r="B30" s="17"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="29"/>
-      <c r="L30" s="23"/>
-      <c r="M30" s="23"/>
-      <c r="N30" s="23"/>
-      <c r="O30" s="23"/>
-      <c r="P30" s="23"/>
-      <c r="Q30" s="23"/>
-      <c r="R30" s="71"/>
-      <c r="S30" s="72"/>
-      <c r="T30" s="72"/>
-      <c r="U30" s="72"/>
-      <c r="V30" s="72"/>
-      <c r="W30" s="71"/>
-      <c r="X30" s="72"/>
-      <c r="Y30" s="72"/>
-      <c r="Z30" s="72"/>
-      <c r="AA30" s="23"/>
+      <c r="A30" s="16"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="76"/>
+      <c r="E30" s="76"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="27"/>
+      <c r="L30" s="21"/>
+      <c r="M30" s="21"/>
+      <c r="N30" s="21"/>
+      <c r="O30" s="21"/>
+      <c r="P30" s="21"/>
+      <c r="Q30" s="21"/>
+      <c r="R30" s="67"/>
+      <c r="S30" s="68"/>
+      <c r="T30" s="68"/>
+      <c r="U30" s="68"/>
+      <c r="V30" s="68"/>
+      <c r="W30" s="67"/>
+      <c r="X30" s="68"/>
+      <c r="Y30" s="68"/>
+      <c r="Z30" s="68"/>
+      <c r="AA30" s="21"/>
     </row>
     <row r="31" spans="1:27" ht="15" customHeight="1">
-      <c r="A31" s="24"/>
-      <c r="B31" s="24"/>
-      <c r="C31" s="24"/>
-      <c r="D31" s="24"/>
-      <c r="E31" s="24"/>
-      <c r="F31" s="24"/>
-      <c r="G31" s="29"/>
-      <c r="L31" s="23"/>
-      <c r="M31" s="23"/>
-      <c r="N31" s="23"/>
-      <c r="O31" s="23"/>
-      <c r="P31" s="23"/>
-      <c r="Q31" s="23"/>
-      <c r="R31" s="23"/>
-      <c r="S31" s="23"/>
-      <c r="T31" s="23"/>
-      <c r="U31" s="23"/>
-      <c r="V31" s="23"/>
-      <c r="W31" s="23"/>
-      <c r="X31" s="23"/>
-      <c r="Y31" s="23"/>
-      <c r="Z31" s="23"/>
-      <c r="AA31" s="23"/>
+      <c r="A31" s="22"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="77"/>
+      <c r="E31" s="77"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="27"/>
+      <c r="L31" s="21"/>
+      <c r="M31" s="21"/>
+      <c r="N31" s="21"/>
+      <c r="O31" s="21"/>
+      <c r="P31" s="21"/>
+      <c r="Q31" s="21"/>
+      <c r="R31" s="21"/>
+      <c r="S31" s="21"/>
+      <c r="T31" s="21"/>
+      <c r="U31" s="21"/>
+      <c r="V31" s="21"/>
+      <c r="W31" s="21"/>
+      <c r="X31" s="21"/>
+      <c r="Y31" s="21"/>
+      <c r="Z31" s="21"/>
+      <c r="AA31" s="21"/>
     </row>
     <row r="32" spans="1:27" ht="15" customHeight="1">
-      <c r="A32" s="17"/>
-      <c r="B32" s="17"/>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="29"/>
-      <c r="R32" s="23"/>
-      <c r="S32" s="23"/>
-      <c r="T32" s="23"/>
-      <c r="U32" s="23"/>
+      <c r="A32" s="16"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="76"/>
+      <c r="E32" s="76"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="27"/>
+      <c r="R32" s="21"/>
+      <c r="S32" s="21"/>
+      <c r="T32" s="21"/>
+      <c r="U32" s="21"/>
     </row>
     <row r="33" spans="1:21" ht="15" customHeight="1">
-      <c r="A33" s="24"/>
-      <c r="B33" s="24"/>
-      <c r="C33" s="24"/>
-      <c r="D33" s="24"/>
-      <c r="E33" s="24"/>
-      <c r="F33" s="24"/>
-      <c r="G33" s="29"/>
-      <c r="H33" s="23"/>
-      <c r="I33" s="23"/>
-      <c r="J33" s="23"/>
-      <c r="K33" s="23"/>
-      <c r="L33" s="23"/>
-      <c r="M33" s="23"/>
-      <c r="N33" s="23"/>
-      <c r="O33" s="23"/>
-      <c r="P33" s="23"/>
-      <c r="Q33" s="23"/>
-      <c r="R33" s="23"/>
-      <c r="S33" s="23"/>
-      <c r="T33" s="23"/>
-      <c r="U33" s="23"/>
+      <c r="A33" s="22"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="77"/>
+      <c r="E33" s="77"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="27"/>
+      <c r="H33" s="21"/>
+      <c r="I33" s="21"/>
+      <c r="J33" s="21"/>
+      <c r="K33" s="21"/>
+      <c r="L33" s="21"/>
+      <c r="M33" s="21"/>
+      <c r="N33" s="21"/>
+      <c r="O33" s="21"/>
+      <c r="P33" s="21"/>
+      <c r="Q33" s="21"/>
+      <c r="R33" s="21"/>
+      <c r="S33" s="21"/>
+      <c r="T33" s="21"/>
+      <c r="U33" s="21"/>
     </row>
     <row r="34" spans="1:21" ht="15" customHeight="1">
-      <c r="A34" s="17"/>
-      <c r="B34" s="17"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="17"/>
-      <c r="G34" s="29"/>
-      <c r="H34" s="23"/>
-      <c r="I34" s="23"/>
-      <c r="J34" s="23"/>
-      <c r="K34" s="23"/>
-      <c r="L34" s="23"/>
-      <c r="M34" s="23"/>
-      <c r="N34" s="23"/>
-      <c r="O34" s="23"/>
-      <c r="P34" s="23"/>
-      <c r="Q34" s="23"/>
-      <c r="R34" s="23"/>
-      <c r="S34" s="23"/>
-      <c r="T34" s="23"/>
-      <c r="U34" s="23"/>
+      <c r="A34" s="16"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="76"/>
+      <c r="E34" s="76"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="21"/>
+      <c r="I34" s="21"/>
+      <c r="J34" s="21"/>
+      <c r="K34" s="21"/>
+      <c r="L34" s="21"/>
+      <c r="M34" s="21"/>
+      <c r="N34" s="21"/>
+      <c r="O34" s="21"/>
+      <c r="P34" s="21"/>
+      <c r="Q34" s="21"/>
+      <c r="R34" s="21"/>
+      <c r="S34" s="21"/>
+      <c r="T34" s="21"/>
+      <c r="U34" s="21"/>
     </row>
     <row r="40" spans="1:21" ht="15" customHeight="1">
-      <c r="J40" s="8"/>
+      <c r="J40" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3169,156 +3175,156 @@
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" customHeight="1"/>
   <sheetData>
     <row r="10" spans="1:6">
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="7" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="10"/>
+      <c r="F11" s="9"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="11">
+      <c r="B12" s="10">
         <v>42401</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12" s="11">
         <f t="shared" ref="C12:C17" si="0">INT(B12)-INT($B$12)</f>
         <v>0</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="11">
         <f t="shared" ref="D12:D17" si="1">INT(E12)-INT($B12)</f>
         <v>43</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E12" s="10">
         <v>42444</v>
       </c>
-      <c r="F12" s="13"/>
+      <c r="F12" s="12"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="14">
+      <c r="B13" s="13">
         <v>42403</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13" s="11">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D13" s="11">
         <f t="shared" si="1"/>
         <v>211</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E13" s="10">
         <v>42614</v>
       </c>
-      <c r="F13" s="13"/>
+      <c r="F13" s="12"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="11">
+      <c r="B14" s="10">
         <v>42430</v>
       </c>
-      <c r="C14" s="12">
+      <c r="C14" s="11">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D14" s="11">
         <f t="shared" si="1"/>
         <v>275</v>
       </c>
-      <c r="E14" s="11">
+      <c r="E14" s="10">
         <v>42705</v>
       </c>
-      <c r="F14" s="13"/>
+      <c r="F14" s="12"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="11">
+      <c r="B15" s="10">
         <v>42444</v>
       </c>
-      <c r="C15" s="12">
+      <c r="C15" s="11">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D15" s="11">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="E15" s="14">
+      <c r="E15" s="13">
         <v>42449</v>
       </c>
-      <c r="F15" s="13"/>
+      <c r="F15" s="12"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="8" t="s">
+      <c r="A16" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="11">
+      <c r="B16" s="10">
         <v>42614</v>
       </c>
-      <c r="C16" s="12">
+      <c r="C16" s="11">
         <f t="shared" si="0"/>
         <v>213</v>
       </c>
-      <c r="D16" s="12">
+      <c r="D16" s="11">
         <f t="shared" si="1"/>
         <v>110</v>
       </c>
-      <c r="E16" s="14">
+      <c r="E16" s="13">
         <v>42724</v>
       </c>
-      <c r="F16" s="13"/>
+      <c r="F16" s="12"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="11">
+      <c r="B17" s="10">
         <v>42705</v>
       </c>
-      <c r="C17" s="12">
+      <c r="C17" s="11">
         <f t="shared" si="0"/>
         <v>304</v>
       </c>
-      <c r="D17" s="12">
+      <c r="D17" s="11">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="E17" s="14">
+      <c r="E17" s="13">
         <v>42725</v>
       </c>
-      <c r="F17" s="13"/>
+      <c r="F17" s="12"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="E18" s="14"/>
+      <c r="E18" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Gantt Chart Proper.xlsx
+++ b/Gantt Chart Proper.xlsx
@@ -2,20 +2,20 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jacky\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="13140"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9372"/>
   </bookViews>
   <sheets>
     <sheet name="Basic Manual Gantt Chart" sheetId="1" r:id="rId1"/>
     <sheet name="TTPI" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -151,11 +151,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
     <numFmt numFmtId="165" formatCode="d&quot;/&quot;m&quot;/&quot;yy"/>
-    <numFmt numFmtId="169" formatCode="dd/mm/yyyy;@"/>
+    <numFmt numFmtId="166" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
   <fonts count="14">
     <font>
@@ -430,6 +430,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="166" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="4" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -443,18 +455,6 @@
     <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="169" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="169" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="169" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="169" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="4" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -479,7 +479,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -624,7 +624,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-FA49-495C-A3B7-D7C38E97A3F0}"/>
             </c:ext>
@@ -747,7 +747,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-FA49-495C-A3B7-D7C38E97A3F0}"/>
             </c:ext>
@@ -763,11 +763,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="537970816"/>
-        <c:axId val="537967864"/>
+        <c:axId val="383491496"/>
+        <c:axId val="383486400"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="537970816"/>
+        <c:axId val="383491496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -810,7 +810,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="537967864"/>
+        <c:crossAx val="383486400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -818,7 +818,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="537967864"/>
+        <c:axId val="383486400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="43038"/>
@@ -870,7 +870,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="537970816"/>
+        <c:crossAx val="383491496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -948,7 +948,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="1"/>
@@ -1029,7 +1029,10 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2603-49A0-AF6F-D533E97E9252}"/>
+            </c:ext>
             <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
               <c14:invertSolidFillFmt>
                 <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
@@ -1038,9 +1041,6 @@
                   </a:solidFill>
                 </c14:spPr>
               </c14:invertSolidFillFmt>
-            </c:ext>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2603-49A0-AF6F-D533E97E9252}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1112,7 +1112,10 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2603-49A0-AF6F-D533E97E9252}"/>
+            </c:ext>
             <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
               <c14:invertSolidFillFmt>
                 <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
@@ -1121,9 +1124,6 @@
                   </a:solidFill>
                 </c14:spPr>
               </c14:invertSolidFillFmt>
-            </c:ext>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-2603-49A0-AF6F-D533E97E9252}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1136,11 +1136,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="400727009"/>
-        <c:axId val="813806857"/>
+        <c:axId val="384901952"/>
+        <c:axId val="384909008"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="400727009"/>
+        <c:axId val="384901952"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -1160,7 +1160,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="813806857"/>
+        <c:crossAx val="384909008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1168,7 +1168,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="813806857"/>
+        <c:axId val="384909008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1202,7 +1202,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="400727009"/>
+        <c:crossAx val="384901952"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2104,20 +2104,20 @@
   <dimension ref="A1:AA40"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="48.5" customWidth="1"/>
-    <col min="2" max="2" width="16.25" customWidth="1"/>
-    <col min="3" max="3" width="11.25" customWidth="1"/>
-    <col min="4" max="4" width="18.625" style="83" customWidth="1"/>
-    <col min="5" max="5" width="18.5" style="83" customWidth="1"/>
-    <col min="6" max="6" width="13.875" customWidth="1"/>
-    <col min="7" max="7" width="11.25" customWidth="1"/>
+    <col min="2" max="2" width="16.19921875" customWidth="1"/>
+    <col min="3" max="3" width="11.19921875" customWidth="1"/>
+    <col min="4" max="4" width="18.59765625" style="78" customWidth="1"/>
+    <col min="5" max="5" width="18.5" style="78" customWidth="1"/>
+    <col min="6" max="6" width="13.8984375" customWidth="1"/>
+    <col min="7" max="7" width="11.19921875" customWidth="1"/>
     <col min="8" max="8" width="32.5" customWidth="1"/>
-    <col min="9" max="27" width="11.25" customWidth="1"/>
+    <col min="9" max="27" width="11.19921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15" customHeight="1">
@@ -2130,10 +2130,10 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="72" t="s">
+      <c r="D1" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="73" t="s">
+      <c r="E1" s="68" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="50" t="s">
@@ -2154,10 +2154,10 @@
       <c r="C2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="74">
+      <c r="D2" s="69">
         <v>43038</v>
       </c>
-      <c r="E2" s="74">
+      <c r="E2" s="69">
         <v>43042</v>
       </c>
       <c r="F2" s="51">
@@ -2194,10 +2194,10 @@
       <c r="C3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="75">
+      <c r="D3" s="70">
         <v>43038</v>
       </c>
-      <c r="E3" s="74">
+      <c r="E3" s="69">
         <v>43042</v>
       </c>
       <c r="F3" s="51">
@@ -2214,14 +2214,14 @@
       <c r="Q3" s="19"/>
       <c r="R3" s="20"/>
       <c r="S3" s="21"/>
-      <c r="T3" s="69"/>
-      <c r="U3" s="68"/>
-      <c r="V3" s="68"/>
-      <c r="W3" s="68"/>
-      <c r="X3" s="68"/>
-      <c r="Y3" s="68"/>
-      <c r="Z3" s="68"/>
-      <c r="AA3" s="68"/>
+      <c r="T3" s="81"/>
+      <c r="U3" s="80"/>
+      <c r="V3" s="80"/>
+      <c r="W3" s="80"/>
+      <c r="X3" s="80"/>
+      <c r="Y3" s="80"/>
+      <c r="Z3" s="80"/>
+      <c r="AA3" s="80"/>
     </row>
     <row r="4" spans="1:27" ht="15" customHeight="1">
       <c r="A4" s="3" t="s">
@@ -2233,10 +2233,10 @@
       <c r="C4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="74">
+      <c r="D4" s="69">
         <v>43038</v>
       </c>
-      <c r="E4" s="74">
+      <c r="E4" s="69">
         <v>43042</v>
       </c>
       <c r="F4" s="51">
@@ -2272,10 +2272,10 @@
       <c r="C5" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="76">
+      <c r="D5" s="71">
         <v>43038</v>
       </c>
-      <c r="E5" s="76">
+      <c r="E5" s="71">
         <v>43044</v>
       </c>
       <c r="F5" s="51">
@@ -2311,10 +2311,10 @@
       <c r="C6" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="77">
+      <c r="D6" s="72">
         <v>43038</v>
       </c>
-      <c r="E6" s="77">
+      <c r="E6" s="72">
         <v>43051</v>
       </c>
       <c r="F6" s="51">
@@ -2350,10 +2350,10 @@
       <c r="C7" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="76">
+      <c r="D7" s="71">
         <v>43038</v>
       </c>
-      <c r="E7" s="76">
+      <c r="E7" s="71">
         <v>43044</v>
       </c>
       <c r="F7" s="51">
@@ -2383,8 +2383,8 @@
       <c r="A8" s="38"/>
       <c r="B8" s="38"/>
       <c r="C8" s="38"/>
-      <c r="D8" s="78"/>
-      <c r="E8" s="78"/>
+      <c r="D8" s="73"/>
+      <c r="E8" s="73"/>
       <c r="F8" s="38"/>
       <c r="G8" s="38"/>
       <c r="H8" s="49"/>
@@ -2413,12 +2413,12 @@
         <v>10</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="77">
+        <v>25</v>
+      </c>
+      <c r="D9" s="72">
         <v>43045</v>
       </c>
-      <c r="E9" s="77">
+      <c r="E9" s="72">
         <v>43051</v>
       </c>
       <c r="F9" s="51">
@@ -2454,10 +2454,10 @@
       <c r="C10" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="76">
+      <c r="D10" s="71">
         <v>43052</v>
       </c>
-      <c r="E10" s="76">
+      <c r="E10" s="71">
         <v>43057</v>
       </c>
       <c r="F10" s="51">
@@ -2492,10 +2492,10 @@
       <c r="C11" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="77">
+      <c r="D11" s="72">
         <v>43058</v>
       </c>
-      <c r="E11" s="77">
+      <c r="E11" s="72">
         <v>43068</v>
       </c>
       <c r="F11" s="51">
@@ -2530,10 +2530,10 @@
       <c r="C12" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="76">
+      <c r="D12" s="71">
         <v>43062</v>
       </c>
-      <c r="E12" s="76">
+      <c r="E12" s="71">
         <v>43068</v>
       </c>
       <c r="F12" s="51">
@@ -2568,10 +2568,10 @@
       <c r="C13" s="54" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="79">
+      <c r="D13" s="74">
         <v>43064</v>
       </c>
-      <c r="E13" s="79">
+      <c r="E13" s="74">
         <v>43073</v>
       </c>
       <c r="F13" s="51">
@@ -2606,10 +2606,10 @@
       <c r="C14" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="80">
+      <c r="D14" s="75">
         <v>43073</v>
       </c>
-      <c r="E14" s="80">
+      <c r="E14" s="75">
         <v>43131</v>
       </c>
       <c r="F14" s="51">
@@ -2644,10 +2644,10 @@
       <c r="C15" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="79">
+      <c r="D15" s="74">
         <v>43045</v>
       </c>
-      <c r="E15" s="79">
+      <c r="E15" s="74">
         <v>43131</v>
       </c>
       <c r="F15" s="51">
@@ -2682,8 +2682,8 @@
       <c r="C16" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="81"/>
-      <c r="E16" s="81"/>
+      <c r="D16" s="76"/>
+      <c r="E16" s="76"/>
       <c r="F16" s="16"/>
       <c r="G16" s="34"/>
       <c r="L16" s="23"/>
@@ -2707,8 +2707,8 @@
       <c r="A17" s="40"/>
       <c r="B17" s="38"/>
       <c r="C17" s="38"/>
-      <c r="D17" s="78"/>
-      <c r="E17" s="78"/>
+      <c r="D17" s="73"/>
+      <c r="E17" s="73"/>
       <c r="F17" s="38"/>
       <c r="G17" s="38"/>
       <c r="L17" s="32"/>
@@ -2736,10 +2736,10 @@
         <v>10</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" s="82"/>
-      <c r="E18" s="82"/>
+        <v>23</v>
+      </c>
+      <c r="D18" s="77"/>
+      <c r="E18" s="77"/>
       <c r="F18" s="39"/>
       <c r="G18" s="34"/>
       <c r="L18" s="32"/>
@@ -2769,8 +2769,8 @@
       <c r="C19" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D19" s="77"/>
-      <c r="E19" s="77"/>
+      <c r="D19" s="72"/>
+      <c r="E19" s="72"/>
       <c r="F19" s="22"/>
       <c r="G19" s="34"/>
       <c r="L19" s="32"/>
@@ -2794,8 +2794,8 @@
       <c r="A20" s="39"/>
       <c r="B20" s="39"/>
       <c r="C20" s="39"/>
-      <c r="D20" s="82"/>
-      <c r="E20" s="82"/>
+      <c r="D20" s="77"/>
+      <c r="E20" s="77"/>
       <c r="F20" s="39"/>
       <c r="G20" s="34"/>
       <c r="L20" s="26"/>
@@ -2819,8 +2819,8 @@
       <c r="A21" s="22"/>
       <c r="B21" s="22"/>
       <c r="C21" s="22"/>
-      <c r="D21" s="77"/>
-      <c r="E21" s="77"/>
+      <c r="D21" s="72"/>
+      <c r="E21" s="72"/>
       <c r="F21" s="22"/>
       <c r="G21" s="27"/>
       <c r="L21" s="26"/>
@@ -2844,8 +2844,8 @@
       <c r="A22" s="39"/>
       <c r="B22" s="39"/>
       <c r="C22" s="39"/>
-      <c r="D22" s="82"/>
-      <c r="E22" s="82"/>
+      <c r="D22" s="77"/>
+      <c r="E22" s="77"/>
       <c r="F22" s="39"/>
       <c r="G22" s="27"/>
       <c r="L22" s="32"/>
@@ -2869,8 +2869,8 @@
       <c r="A23" s="22"/>
       <c r="B23" s="22"/>
       <c r="C23" s="22"/>
-      <c r="D23" s="77"/>
-      <c r="E23" s="77"/>
+      <c r="D23" s="72"/>
+      <c r="E23" s="72"/>
       <c r="F23" s="22"/>
       <c r="G23" s="27"/>
       <c r="L23" s="32"/>
@@ -2894,8 +2894,8 @@
       <c r="A24" s="16"/>
       <c r="B24" s="16"/>
       <c r="C24" s="16"/>
-      <c r="D24" s="76"/>
-      <c r="E24" s="76"/>
+      <c r="D24" s="71"/>
+      <c r="E24" s="71"/>
       <c r="F24" s="16"/>
       <c r="G24" s="27"/>
       <c r="L24" s="32"/>
@@ -2919,8 +2919,8 @@
       <c r="A25" s="22"/>
       <c r="B25" s="22"/>
       <c r="C25" s="22"/>
-      <c r="D25" s="77"/>
-      <c r="E25" s="77"/>
+      <c r="D25" s="72"/>
+      <c r="E25" s="72"/>
       <c r="F25" s="22"/>
       <c r="G25" s="27"/>
       <c r="L25" s="32"/>
@@ -2944,8 +2944,8 @@
       <c r="A26" s="16"/>
       <c r="B26" s="16"/>
       <c r="C26" s="16"/>
-      <c r="D26" s="76"/>
-      <c r="E26" s="76"/>
+      <c r="D26" s="71"/>
+      <c r="E26" s="71"/>
       <c r="F26" s="16"/>
       <c r="G26" s="27"/>
       <c r="L26" s="32"/>
@@ -2969,8 +2969,8 @@
       <c r="A27" s="43"/>
       <c r="B27" s="43"/>
       <c r="C27" s="43"/>
-      <c r="D27" s="77"/>
-      <c r="E27" s="77"/>
+      <c r="D27" s="72"/>
+      <c r="E27" s="72"/>
       <c r="F27" s="43"/>
       <c r="G27" s="44"/>
       <c r="L27" s="21"/>
@@ -2994,8 +2994,8 @@
       <c r="A28" s="45"/>
       <c r="B28" s="45"/>
       <c r="C28" s="45"/>
-      <c r="D28" s="76"/>
-      <c r="E28" s="76"/>
+      <c r="D28" s="71"/>
+      <c r="E28" s="71"/>
       <c r="F28" s="45"/>
       <c r="G28" s="44"/>
       <c r="L28" s="21"/>
@@ -3019,8 +3019,8 @@
       <c r="A29" s="22"/>
       <c r="B29" s="22"/>
       <c r="C29" s="22"/>
-      <c r="D29" s="77"/>
-      <c r="E29" s="77"/>
+      <c r="D29" s="72"/>
+      <c r="E29" s="72"/>
       <c r="F29" s="22"/>
       <c r="G29" s="27"/>
       <c r="L29" s="21"/>
@@ -3029,23 +3029,23 @@
       <c r="O29" s="21"/>
       <c r="P29" s="21"/>
       <c r="Q29" s="46"/>
-      <c r="R29" s="71"/>
-      <c r="S29" s="68"/>
-      <c r="T29" s="68"/>
-      <c r="U29" s="68"/>
-      <c r="V29" s="68"/>
-      <c r="W29" s="70"/>
-      <c r="X29" s="68"/>
-      <c r="Y29" s="68"/>
-      <c r="Z29" s="68"/>
+      <c r="R29" s="83"/>
+      <c r="S29" s="80"/>
+      <c r="T29" s="80"/>
+      <c r="U29" s="80"/>
+      <c r="V29" s="80"/>
+      <c r="W29" s="82"/>
+      <c r="X29" s="80"/>
+      <c r="Y29" s="80"/>
+      <c r="Z29" s="80"/>
       <c r="AA29" s="21"/>
     </row>
     <row r="30" spans="1:27" ht="15" customHeight="1">
       <c r="A30" s="16"/>
       <c r="B30" s="16"/>
       <c r="C30" s="16"/>
-      <c r="D30" s="76"/>
-      <c r="E30" s="76"/>
+      <c r="D30" s="71"/>
+      <c r="E30" s="71"/>
       <c r="F30" s="16"/>
       <c r="G30" s="27"/>
       <c r="L30" s="21"/>
@@ -3054,23 +3054,23 @@
       <c r="O30" s="21"/>
       <c r="P30" s="21"/>
       <c r="Q30" s="21"/>
-      <c r="R30" s="67"/>
-      <c r="S30" s="68"/>
-      <c r="T30" s="68"/>
-      <c r="U30" s="68"/>
-      <c r="V30" s="68"/>
-      <c r="W30" s="67"/>
-      <c r="X30" s="68"/>
-      <c r="Y30" s="68"/>
-      <c r="Z30" s="68"/>
+      <c r="R30" s="79"/>
+      <c r="S30" s="80"/>
+      <c r="T30" s="80"/>
+      <c r="U30" s="80"/>
+      <c r="V30" s="80"/>
+      <c r="W30" s="79"/>
+      <c r="X30" s="80"/>
+      <c r="Y30" s="80"/>
+      <c r="Z30" s="80"/>
       <c r="AA30" s="21"/>
     </row>
     <row r="31" spans="1:27" ht="15" customHeight="1">
       <c r="A31" s="22"/>
       <c r="B31" s="22"/>
       <c r="C31" s="22"/>
-      <c r="D31" s="77"/>
-      <c r="E31" s="77"/>
+      <c r="D31" s="72"/>
+      <c r="E31" s="72"/>
       <c r="F31" s="22"/>
       <c r="G31" s="27"/>
       <c r="L31" s="21"/>
@@ -3094,8 +3094,8 @@
       <c r="A32" s="16"/>
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
-      <c r="D32" s="76"/>
-      <c r="E32" s="76"/>
+      <c r="D32" s="71"/>
+      <c r="E32" s="71"/>
       <c r="F32" s="16"/>
       <c r="G32" s="27"/>
       <c r="R32" s="21"/>
@@ -3107,8 +3107,8 @@
       <c r="A33" s="22"/>
       <c r="B33" s="22"/>
       <c r="C33" s="22"/>
-      <c r="D33" s="77"/>
-      <c r="E33" s="77"/>
+      <c r="D33" s="72"/>
+      <c r="E33" s="72"/>
       <c r="F33" s="22"/>
       <c r="G33" s="27"/>
       <c r="H33" s="21"/>
@@ -3130,8 +3130,8 @@
       <c r="A34" s="16"/>
       <c r="B34" s="16"/>
       <c r="C34" s="16"/>
-      <c r="D34" s="76"/>
-      <c r="E34" s="76"/>
+      <c r="D34" s="71"/>
+      <c r="E34" s="71"/>
       <c r="F34" s="16"/>
       <c r="G34" s="27"/>
       <c r="H34" s="21"/>
@@ -3172,7 +3172,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1"/>
   <sheetData>
     <row r="10" spans="1:6">
       <c r="B10" s="7" t="s">

--- a/Gantt Chart Proper.xlsx
+++ b/Gantt Chart Proper.xlsx
@@ -2,25 +2,25 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jacky\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9372"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21525" windowHeight="11850"/>
   </bookViews>
   <sheets>
     <sheet name="Basic Manual Gantt Chart" sheetId="1" r:id="rId1"/>
     <sheet name="TTPI" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="47">
   <si>
     <t>Task Name</t>
   </si>
@@ -146,18 +146,33 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>✓</t>
+  </si>
+  <si>
+    <t>×</t>
+  </si>
+  <si>
+    <t>∫</t>
+  </si>
+  <si>
+    <t>half done</t>
+  </si>
+  <si>
+    <t>not started</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
     <numFmt numFmtId="165" formatCode="d&quot;/&quot;m&quot;/&quot;yy"/>
     <numFmt numFmtId="166" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -230,6 +245,12 @@
       <sz val="12"/>
       <name val="Courier New"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="9">
@@ -336,14 +357,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -442,6 +462,7 @@
     <xf numFmtId="166" fontId="4" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -455,6 +476,8 @@
     <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -479,7 +502,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -598,7 +621,7 @@
                   <c:v>43038</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43038</c:v>
+                  <c:v>43073</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>43045</c:v>
@@ -624,7 +647,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-FA49-495C-A3B7-D7C38E97A3F0}"/>
             </c:ext>
@@ -721,7 +744,7 @@
                   <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>6</c:v>
@@ -747,7 +770,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-FA49-495C-A3B7-D7C38E97A3F0}"/>
             </c:ext>
@@ -948,7 +971,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="1"/>
@@ -1029,10 +1052,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-2603-49A0-AF6F-D533E97E9252}"/>
-            </c:ext>
+          <c:extLst>
             <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
               <c14:invertSolidFillFmt>
                 <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
@@ -1041,6 +1061,9 @@
                   </a:solidFill>
                 </c14:spPr>
               </c14:invertSolidFillFmt>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2603-49A0-AF6F-D533E97E9252}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1112,10 +1135,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-2603-49A0-AF6F-D533E97E9252}"/>
-            </c:ext>
+          <c:extLst>
             <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{6F2FDCE9-48DA-4B69-8628-5D25D57E5C99}">
               <c14:invertSolidFillFmt>
                 <c14:spPr xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
@@ -1124,6 +1144,9 @@
                   </a:solidFill>
                 </c14:spPr>
               </c14:invertSolidFillFmt>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2603-49A0-AF6F-D533E97E9252}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2104,20 +2127,20 @@
   <dimension ref="A1:AA40"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="48.5" customWidth="1"/>
-    <col min="2" max="2" width="16.19921875" customWidth="1"/>
-    <col min="3" max="3" width="11.19921875" customWidth="1"/>
-    <col min="4" max="4" width="18.59765625" style="78" customWidth="1"/>
-    <col min="5" max="5" width="18.5" style="78" customWidth="1"/>
-    <col min="6" max="6" width="13.8984375" customWidth="1"/>
-    <col min="7" max="7" width="11.19921875" customWidth="1"/>
+    <col min="2" max="2" width="16.25" customWidth="1"/>
+    <col min="3" max="3" width="11.25" customWidth="1"/>
+    <col min="4" max="4" width="18.625" style="77" customWidth="1"/>
+    <col min="5" max="5" width="18.5" style="77" customWidth="1"/>
+    <col min="6" max="6" width="13.875" customWidth="1"/>
+    <col min="7" max="7" width="11.25" customWidth="1"/>
     <col min="8" max="8" width="32.5" customWidth="1"/>
-    <col min="9" max="27" width="11.19921875" customWidth="1"/>
+    <col min="9" max="27" width="11.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15" customHeight="1">
@@ -2130,19 +2153,19 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="67" t="s">
+      <c r="D1" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="68" t="s">
+      <c r="E1" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="50" t="s">
+      <c r="F1" s="49" t="s">
         <v>14</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="48"/>
+      <c r="H1" s="47"/>
     </row>
     <row r="2" spans="1:27" ht="15" customHeight="1">
       <c r="A2" s="3" t="s">
@@ -2154,66 +2177,70 @@
       <c r="C2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="69">
+      <c r="D2" s="68">
         <v>43038</v>
       </c>
-      <c r="E2" s="69">
+      <c r="E2" s="68">
         <v>43042</v>
       </c>
-      <c r="F2" s="51">
+      <c r="F2" s="50">
         <f>E2 - D2</f>
         <v>4</v>
       </c>
-      <c r="G2" s="6"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="L2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15"/>
-      <c r="Q2" s="15"/>
-      <c r="R2" s="15"/>
-      <c r="S2" s="15"/>
-      <c r="T2" s="15"/>
-      <c r="U2" s="15"/>
-      <c r="V2" s="15"/>
-      <c r="W2" s="15"/>
-      <c r="X2" s="15"/>
-      <c r="Y2" s="15"/>
-      <c r="Z2" s="15"/>
-      <c r="AA2" s="15"/>
+      <c r="G2" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="H2" s="48"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="L2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14"/>
+      <c r="S2" s="14"/>
+      <c r="T2" s="14"/>
+      <c r="U2" s="14"/>
+      <c r="V2" s="14"/>
+      <c r="W2" s="14"/>
+      <c r="X2" s="14"/>
+      <c r="Y2" s="14"/>
+      <c r="Z2" s="14"/>
+      <c r="AA2" s="14"/>
     </row>
     <row r="3" spans="1:27" ht="15" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="16">
+      <c r="B3" s="15">
         <v>10</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="70">
+      <c r="D3" s="69">
         <v>43038</v>
       </c>
-      <c r="E3" s="69">
+      <c r="E3" s="68">
         <v>43042</v>
       </c>
-      <c r="F3" s="51">
+      <c r="F3" s="50">
         <f t="shared" ref="F3:F7" si="0">E3 - D3</f>
         <v>4</v>
       </c>
-      <c r="G3" s="17"/>
-      <c r="H3" s="52"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="19"/>
-      <c r="Q3" s="19"/>
-      <c r="R3" s="20"/>
-      <c r="S3" s="21"/>
+      <c r="G3" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="H3" s="51"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="18"/>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="19"/>
+      <c r="S3" s="20"/>
       <c r="T3" s="81"/>
       <c r="U3" s="80"/>
       <c r="V3" s="80"/>
@@ -2227,808 +2254,823 @@
       <c r="A4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="66" t="s">
+      <c r="B4" s="65" t="s">
         <v>41</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="69">
+      <c r="D4" s="68">
         <v>43038</v>
       </c>
-      <c r="E4" s="69">
+      <c r="E4" s="68">
         <v>43042</v>
       </c>
-      <c r="F4" s="51">
+      <c r="F4" s="50">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G4" s="17"/>
-      <c r="H4" s="49"/>
-      <c r="L4" s="23"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="24"/>
-      <c r="O4" s="25"/>
-      <c r="P4" s="26"/>
-      <c r="Q4" s="21"/>
-      <c r="R4" s="21"/>
-      <c r="S4" s="21"/>
-      <c r="T4" s="21"/>
-      <c r="U4" s="21"/>
-      <c r="V4" s="21"/>
-      <c r="W4" s="21"/>
-      <c r="X4" s="21"/>
-      <c r="Y4" s="21"/>
-      <c r="Z4" s="21"/>
-      <c r="AA4" s="21"/>
+      <c r="G4" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4" s="48"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="23"/>
+      <c r="O4" s="24"/>
+      <c r="P4" s="25"/>
+      <c r="Q4" s="20"/>
+      <c r="R4" s="20"/>
+      <c r="S4" s="20"/>
+      <c r="T4" s="20"/>
+      <c r="U4" s="20"/>
+      <c r="V4" s="20"/>
+      <c r="W4" s="20"/>
+      <c r="X4" s="20"/>
+      <c r="Y4" s="20"/>
+      <c r="Z4" s="20"/>
+      <c r="AA4" s="20"/>
     </row>
     <row r="5" spans="1:27" ht="15" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="16">
+      <c r="B5" s="15">
         <v>10</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="71">
+      <c r="D5" s="70">
         <v>43038</v>
       </c>
-      <c r="E5" s="71">
+      <c r="E5" s="70">
         <v>43044</v>
       </c>
-      <c r="F5" s="51">
+      <c r="F5" s="50">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="G5" s="27"/>
-      <c r="H5" s="49"/>
-      <c r="L5" s="23"/>
-      <c r="M5" s="24"/>
-      <c r="N5" s="24"/>
-      <c r="O5" s="25"/>
-      <c r="P5" s="26"/>
-      <c r="Q5" s="21"/>
-      <c r="R5" s="21"/>
-      <c r="S5" s="21"/>
-      <c r="T5" s="21"/>
-      <c r="U5" s="21"/>
-      <c r="V5" s="21"/>
-      <c r="W5" s="21"/>
-      <c r="X5" s="21"/>
-      <c r="Y5" s="21"/>
-      <c r="Z5" s="21"/>
-      <c r="AA5" s="21"/>
+      <c r="G5" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="H5" s="48"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="24"/>
+      <c r="P5" s="25"/>
+      <c r="Q5" s="20"/>
+      <c r="R5" s="20"/>
+      <c r="S5" s="20"/>
+      <c r="T5" s="20"/>
+      <c r="U5" s="20"/>
+      <c r="V5" s="20"/>
+      <c r="W5" s="20"/>
+      <c r="X5" s="20"/>
+      <c r="Y5" s="20"/>
+      <c r="Z5" s="20"/>
+      <c r="AA5" s="20"/>
     </row>
     <row r="6" spans="1:27" ht="15" customHeight="1">
       <c r="A6" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="22">
+      <c r="B6" s="21">
         <v>10</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="72">
+      <c r="D6" s="71">
         <v>43038</v>
       </c>
-      <c r="E6" s="72">
+      <c r="E6" s="71">
         <v>43051</v>
       </c>
-      <c r="F6" s="51">
+      <c r="F6" s="50">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="G6" s="27"/>
-      <c r="H6" s="49"/>
-      <c r="L6" s="28"/>
-      <c r="M6" s="24"/>
-      <c r="N6" s="24"/>
-      <c r="O6" s="29"/>
-      <c r="P6" s="26"/>
-      <c r="Q6" s="21"/>
-      <c r="R6" s="21"/>
-      <c r="S6" s="21"/>
-      <c r="T6" s="21"/>
-      <c r="U6" s="21"/>
-      <c r="V6" s="21"/>
-      <c r="W6" s="21"/>
-      <c r="X6" s="21"/>
-      <c r="Y6" s="21"/>
-      <c r="Z6" s="21"/>
-      <c r="AA6" s="21"/>
+      <c r="G6" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="H6" s="48"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="28"/>
+      <c r="P6" s="25"/>
+      <c r="Q6" s="20"/>
+      <c r="R6" s="20"/>
+      <c r="S6" s="20"/>
+      <c r="T6" s="20"/>
+      <c r="U6" s="20"/>
+      <c r="V6" s="20"/>
+      <c r="W6" s="20"/>
+      <c r="X6" s="20"/>
+      <c r="Y6" s="20"/>
+      <c r="Z6" s="20"/>
+      <c r="AA6" s="20"/>
     </row>
     <row r="7" spans="1:27" ht="15" customHeight="1">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="16">
+      <c r="B7" s="15">
         <v>10</v>
       </c>
-      <c r="C7" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="71">
-        <v>43038</v>
-      </c>
-      <c r="E7" s="71">
-        <v>43044</v>
-      </c>
-      <c r="F7" s="51">
+      <c r="C7" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="70">
+        <v>43073</v>
+      </c>
+      <c r="E7" s="70">
+        <f>D7+7</f>
+        <v>43080</v>
+      </c>
+      <c r="F7" s="50">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="G7" s="27"/>
-      <c r="H7" s="49"/>
-      <c r="L7" s="23"/>
-      <c r="M7" s="31"/>
-      <c r="N7" s="31"/>
-      <c r="O7" s="25"/>
-      <c r="P7" s="32"/>
-      <c r="Q7" s="21"/>
-      <c r="R7" s="21"/>
-      <c r="S7" s="21"/>
-      <c r="T7" s="21"/>
-      <c r="U7" s="21"/>
-      <c r="V7" s="21"/>
-      <c r="W7" s="21"/>
-      <c r="X7" s="21"/>
-      <c r="Y7" s="21"/>
-      <c r="Z7" s="21"/>
-      <c r="AA7" s="21"/>
-    </row>
-    <row r="8" spans="1:27" s="47" customFormat="1" ht="15" customHeight="1">
-      <c r="A8" s="38"/>
-      <c r="B8" s="38"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="73"/>
-      <c r="E8" s="73"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="49"/>
-      <c r="L8" s="23"/>
-      <c r="M8" s="31"/>
-      <c r="N8" s="31"/>
-      <c r="O8" s="25"/>
-      <c r="P8" s="32"/>
-      <c r="Q8" s="21"/>
-      <c r="R8" s="21"/>
-      <c r="S8" s="21"/>
-      <c r="T8" s="21"/>
-      <c r="U8" s="21"/>
-      <c r="V8" s="21"/>
-      <c r="W8" s="21"/>
-      <c r="X8" s="21"/>
-      <c r="Y8" s="21"/>
-      <c r="Z8" s="21"/>
-      <c r="AA8" s="21"/>
+        <v>7</v>
+      </c>
+      <c r="G7" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="H7" s="48"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="30"/>
+      <c r="N7" s="30"/>
+      <c r="O7" s="24"/>
+      <c r="P7" s="31"/>
+      <c r="Q7" s="20"/>
+      <c r="R7" s="20"/>
+      <c r="S7" s="20"/>
+      <c r="T7" s="20"/>
+      <c r="U7" s="20"/>
+      <c r="V7" s="20"/>
+      <c r="W7" s="20"/>
+      <c r="X7" s="20"/>
+      <c r="Y7" s="20"/>
+      <c r="Z7" s="20"/>
+      <c r="AA7" s="20"/>
+    </row>
+    <row r="8" spans="1:27" s="46" customFormat="1" ht="15" customHeight="1">
+      <c r="A8" s="37"/>
+      <c r="B8" s="37"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="48"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="30"/>
+      <c r="N8" s="30"/>
+      <c r="O8" s="24"/>
+      <c r="P8" s="31"/>
+      <c r="Q8" s="20"/>
+      <c r="R8" s="20"/>
+      <c r="S8" s="20"/>
+      <c r="T8" s="20"/>
+      <c r="U8" s="20"/>
+      <c r="V8" s="20"/>
+      <c r="W8" s="20"/>
+      <c r="X8" s="20"/>
+      <c r="Y8" s="20"/>
+      <c r="Z8" s="20"/>
+      <c r="AA8" s="20"/>
     </row>
     <row r="9" spans="1:27" ht="15" customHeight="1">
-      <c r="A9" s="33" t="s">
+      <c r="A9" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="22">
+      <c r="B9" s="21">
         <v>10</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="72">
+      <c r="D9" s="71">
         <v>43045</v>
       </c>
-      <c r="E9" s="72">
+      <c r="E9" s="71">
         <v>43051</v>
       </c>
-      <c r="F9" s="51">
+      <c r="F9" s="50">
         <f>E9-D9</f>
         <v>6</v>
       </c>
-      <c r="G9" s="34"/>
-      <c r="H9" s="35"/>
-      <c r="L9" s="23"/>
-      <c r="M9" s="31"/>
-      <c r="N9" s="31"/>
-      <c r="O9" s="25"/>
-      <c r="P9" s="26"/>
-      <c r="Q9" s="21"/>
-      <c r="R9" s="21"/>
-      <c r="S9" s="21"/>
-      <c r="T9" s="21"/>
-      <c r="U9" s="21"/>
-      <c r="V9" s="21"/>
-      <c r="W9" s="21"/>
-      <c r="X9" s="21"/>
-      <c r="Y9" s="21"/>
-      <c r="Z9" s="21"/>
-      <c r="AA9" s="21"/>
+      <c r="G9" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="H9" s="34"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="30"/>
+      <c r="O9" s="24"/>
+      <c r="P9" s="25"/>
+      <c r="Q9" s="20"/>
+      <c r="R9" s="20"/>
+      <c r="S9" s="20"/>
+      <c r="T9" s="20"/>
+      <c r="U9" s="20"/>
+      <c r="V9" s="20"/>
+      <c r="W9" s="20"/>
+      <c r="X9" s="20"/>
+      <c r="Y9" s="20"/>
+      <c r="Z9" s="20"/>
+      <c r="AA9" s="20"/>
     </row>
     <row r="10" spans="1:27" ht="15" customHeight="1">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="16">
+      <c r="B10" s="15">
         <v>5</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="71">
+      <c r="C10" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="70">
         <v>43052</v>
       </c>
-      <c r="E10" s="71">
+      <c r="E10" s="70">
         <v>43057</v>
       </c>
-      <c r="F10" s="51">
+      <c r="F10" s="50">
         <f t="shared" ref="F10:F15" si="1">E10-D10</f>
         <v>5</v>
       </c>
-      <c r="G10" s="34"/>
-      <c r="L10" s="23"/>
-      <c r="M10" s="31"/>
-      <c r="N10" s="31"/>
-      <c r="O10" s="25"/>
-      <c r="P10" s="26"/>
-      <c r="Q10" s="21"/>
-      <c r="R10" s="21"/>
-      <c r="S10" s="21"/>
-      <c r="T10" s="21"/>
-      <c r="U10" s="21"/>
-      <c r="V10" s="21"/>
-      <c r="W10" s="21"/>
-      <c r="X10" s="21"/>
-      <c r="Y10" s="21"/>
-      <c r="Z10" s="21"/>
-      <c r="AA10" s="21"/>
+      <c r="G10" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="L10" s="22"/>
+      <c r="M10" s="30"/>
+      <c r="N10" s="30"/>
+      <c r="O10" s="24"/>
+      <c r="P10" s="25"/>
+      <c r="Q10" s="20"/>
+      <c r="R10" s="20"/>
+      <c r="S10" s="20"/>
+      <c r="T10" s="20"/>
+      <c r="U10" s="20"/>
+      <c r="V10" s="20"/>
+      <c r="W10" s="20"/>
+      <c r="X10" s="20"/>
+      <c r="Y10" s="20"/>
+      <c r="Z10" s="20"/>
+      <c r="AA10" s="20"/>
     </row>
     <row r="11" spans="1:27" ht="15" customHeight="1">
-      <c r="A11" s="36" t="s">
+      <c r="A11" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="22">
+      <c r="B11" s="21">
         <v>10</v>
       </c>
-      <c r="C11" s="22" t="s">
+      <c r="C11" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="72">
+      <c r="D11" s="71">
         <v>43058</v>
       </c>
-      <c r="E11" s="72">
+      <c r="E11" s="71">
         <v>43068</v>
       </c>
-      <c r="F11" s="51">
+      <c r="F11" s="50">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="G11" s="27"/>
-      <c r="L11" s="37"/>
-      <c r="M11" s="31"/>
-      <c r="N11" s="31"/>
-      <c r="O11" s="25"/>
-      <c r="P11" s="26"/>
-      <c r="Q11" s="21"/>
-      <c r="R11" s="21"/>
-      <c r="S11" s="21"/>
-      <c r="T11" s="21"/>
-      <c r="U11" s="21"/>
-      <c r="V11" s="21"/>
-      <c r="W11" s="21"/>
-      <c r="X11" s="21"/>
-      <c r="Y11" s="21"/>
-      <c r="Z11" s="21"/>
-      <c r="AA11" s="21"/>
+      <c r="G11" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="L11" s="36"/>
+      <c r="M11" s="30"/>
+      <c r="N11" s="30"/>
+      <c r="O11" s="24"/>
+      <c r="P11" s="25"/>
+      <c r="Q11" s="20"/>
+      <c r="R11" s="20"/>
+      <c r="S11" s="20"/>
+      <c r="T11" s="20"/>
+      <c r="U11" s="20"/>
+      <c r="V11" s="20"/>
+      <c r="W11" s="20"/>
+      <c r="X11" s="20"/>
+      <c r="Y11" s="20"/>
+      <c r="Z11" s="20"/>
+      <c r="AA11" s="20"/>
     </row>
     <row r="12" spans="1:27" ht="15" customHeight="1">
-      <c r="A12" s="30" t="s">
+      <c r="A12" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="16">
+      <c r="B12" s="15">
         <v>10</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="71">
+      <c r="D12" s="70">
         <v>43062</v>
       </c>
-      <c r="E12" s="71">
+      <c r="E12" s="70">
         <v>43068</v>
       </c>
-      <c r="F12" s="51">
+      <c r="F12" s="50">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="G12" s="27"/>
-      <c r="L12" s="23"/>
-      <c r="M12" s="31"/>
-      <c r="N12" s="31"/>
-      <c r="O12" s="25"/>
-      <c r="P12" s="26"/>
-      <c r="Q12" s="21"/>
-      <c r="R12" s="21"/>
-      <c r="S12" s="21"/>
-      <c r="T12" s="21"/>
-      <c r="U12" s="21"/>
-      <c r="V12" s="21"/>
-      <c r="W12" s="21"/>
-      <c r="X12" s="21"/>
-      <c r="Y12" s="21"/>
-      <c r="Z12" s="21"/>
-      <c r="AA12" s="21"/>
-    </row>
-    <row r="13" spans="1:27" s="55" customFormat="1" ht="15" customHeight="1">
-      <c r="A13" s="53" t="s">
+      <c r="G12" s="26"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="30"/>
+      <c r="N12" s="30"/>
+      <c r="O12" s="24"/>
+      <c r="P12" s="25"/>
+      <c r="Q12" s="20"/>
+      <c r="R12" s="20"/>
+      <c r="S12" s="20"/>
+      <c r="T12" s="20"/>
+      <c r="U12" s="20"/>
+      <c r="V12" s="20"/>
+      <c r="W12" s="20"/>
+      <c r="X12" s="20"/>
+      <c r="Y12" s="20"/>
+      <c r="Z12" s="20"/>
+      <c r="AA12" s="20"/>
+    </row>
+    <row r="13" spans="1:27" s="54" customFormat="1" ht="15" customHeight="1">
+      <c r="A13" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="B13" s="54">
+      <c r="B13" s="53">
         <v>15</v>
       </c>
-      <c r="C13" s="54" t="s">
+      <c r="C13" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="74">
+      <c r="D13" s="73">
         <v>43064</v>
       </c>
-      <c r="E13" s="74">
+      <c r="E13" s="73">
         <v>43073</v>
       </c>
-      <c r="F13" s="51">
+      <c r="F13" s="50">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="G13" s="27"/>
-      <c r="L13" s="56"/>
-      <c r="M13" s="57"/>
-      <c r="N13" s="57"/>
-      <c r="O13" s="58"/>
-      <c r="P13" s="59"/>
-      <c r="Q13" s="60"/>
-      <c r="R13" s="60"/>
-      <c r="S13" s="60"/>
-      <c r="T13" s="60"/>
-      <c r="U13" s="60"/>
-      <c r="V13" s="60"/>
-      <c r="W13" s="60"/>
-      <c r="X13" s="60"/>
-      <c r="Y13" s="60"/>
-      <c r="Z13" s="60"/>
-      <c r="AA13" s="60"/>
+      <c r="G13" s="26"/>
+      <c r="L13" s="55"/>
+      <c r="M13" s="56"/>
+      <c r="N13" s="56"/>
+      <c r="O13" s="57"/>
+      <c r="P13" s="58"/>
+      <c r="Q13" s="59"/>
+      <c r="R13" s="59"/>
+      <c r="S13" s="59"/>
+      <c r="T13" s="59"/>
+      <c r="U13" s="59"/>
+      <c r="V13" s="59"/>
+      <c r="W13" s="59"/>
+      <c r="X13" s="59"/>
+      <c r="Y13" s="59"/>
+      <c r="Z13" s="59"/>
+      <c r="AA13" s="59"/>
     </row>
     <row r="14" spans="1:27" ht="15" customHeight="1">
-      <c r="A14" s="62" t="s">
+      <c r="A14" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="63">
+      <c r="B14" s="62">
         <v>20</v>
       </c>
-      <c r="C14" s="64" t="s">
+      <c r="C14" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="75">
+      <c r="D14" s="74">
         <v>43073</v>
       </c>
-      <c r="E14" s="75">
+      <c r="E14" s="74">
         <v>43131</v>
       </c>
-      <c r="F14" s="51">
+      <c r="F14" s="50">
         <f t="shared" si="1"/>
         <v>58</v>
       </c>
-      <c r="G14" s="34"/>
-      <c r="L14" s="23"/>
-      <c r="M14" s="31"/>
-      <c r="N14" s="31"/>
-      <c r="O14" s="25"/>
-      <c r="P14" s="32"/>
-      <c r="Q14" s="21"/>
-      <c r="R14" s="21"/>
-      <c r="S14" s="21"/>
-      <c r="T14" s="21"/>
-      <c r="U14" s="21"/>
-      <c r="V14" s="21"/>
-      <c r="W14" s="21"/>
-      <c r="X14" s="21"/>
-      <c r="Y14" s="21"/>
-      <c r="Z14" s="21"/>
-      <c r="AA14" s="21"/>
-    </row>
-    <row r="15" spans="1:27" s="55" customFormat="1" ht="15" customHeight="1">
-      <c r="A15" s="61" t="s">
+      <c r="G14" s="33"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="30"/>
+      <c r="N14" s="30"/>
+      <c r="O14" s="24"/>
+      <c r="P14" s="31"/>
+      <c r="Q14" s="20"/>
+      <c r="R14" s="20"/>
+      <c r="S14" s="20"/>
+      <c r="T14" s="20"/>
+      <c r="U14" s="20"/>
+      <c r="V14" s="20"/>
+      <c r="W14" s="20"/>
+      <c r="X14" s="20"/>
+      <c r="Y14" s="20"/>
+      <c r="Z14" s="20"/>
+      <c r="AA14" s="20"/>
+    </row>
+    <row r="15" spans="1:27" s="54" customFormat="1" ht="15" customHeight="1">
+      <c r="A15" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="54">
+      <c r="B15" s="53">
         <v>15</v>
       </c>
-      <c r="C15" s="53" t="s">
+      <c r="C15" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="74">
+      <c r="D15" s="73">
         <v>43045</v>
       </c>
-      <c r="E15" s="74">
+      <c r="E15" s="73">
         <v>43131</v>
       </c>
-      <c r="F15" s="51">
+      <c r="F15" s="50">
         <f t="shared" si="1"/>
         <v>86</v>
       </c>
-      <c r="G15" s="27"/>
-      <c r="L15" s="56"/>
-      <c r="M15" s="57"/>
-      <c r="N15" s="57"/>
-      <c r="O15" s="58"/>
-      <c r="P15" s="59"/>
-      <c r="Q15" s="60"/>
-      <c r="R15" s="60"/>
-      <c r="S15" s="60"/>
-      <c r="T15" s="60"/>
-      <c r="U15" s="60"/>
-      <c r="V15" s="60"/>
-      <c r="W15" s="60"/>
-      <c r="X15" s="60"/>
-      <c r="Y15" s="60"/>
-      <c r="Z15" s="60"/>
-      <c r="AA15" s="60"/>
+      <c r="G15" s="26"/>
+      <c r="L15" s="55"/>
+      <c r="M15" s="56"/>
+      <c r="N15" s="56"/>
+      <c r="O15" s="57"/>
+      <c r="P15" s="58"/>
+      <c r="Q15" s="59"/>
+      <c r="R15" s="59"/>
+      <c r="S15" s="59"/>
+      <c r="T15" s="59"/>
+      <c r="U15" s="59"/>
+      <c r="V15" s="59"/>
+      <c r="W15" s="59"/>
+      <c r="X15" s="59"/>
+      <c r="Y15" s="59"/>
+      <c r="Z15" s="59"/>
+      <c r="AA15" s="59"/>
     </row>
     <row r="16" spans="1:27" ht="15" customHeight="1">
-      <c r="A16" s="64" t="s">
+      <c r="A16" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="65">
+      <c r="B16" s="64">
         <v>15</v>
       </c>
-      <c r="C16" s="64" t="s">
+      <c r="C16" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="76"/>
-      <c r="E16" s="76"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="34"/>
-      <c r="L16" s="23"/>
-      <c r="M16" s="24"/>
-      <c r="N16" s="24"/>
-      <c r="O16" s="25"/>
-      <c r="P16" s="26"/>
-      <c r="Q16" s="21"/>
-      <c r="R16" s="21"/>
-      <c r="S16" s="21"/>
-      <c r="T16" s="21"/>
-      <c r="U16" s="21"/>
-      <c r="V16" s="21"/>
-      <c r="W16" s="21"/>
-      <c r="X16" s="21"/>
-      <c r="Y16" s="21"/>
-      <c r="Z16" s="21"/>
-      <c r="AA16" s="21"/>
+      <c r="D16" s="75"/>
+      <c r="E16" s="75"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="33"/>
+      <c r="L16" s="22"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="23"/>
+      <c r="O16" s="24"/>
+      <c r="P16" s="25"/>
+      <c r="Q16" s="20"/>
+      <c r="R16" s="20"/>
+      <c r="S16" s="20"/>
+      <c r="T16" s="20"/>
+      <c r="U16" s="20"/>
+      <c r="V16" s="20"/>
+      <c r="W16" s="20"/>
+      <c r="X16" s="20"/>
+      <c r="Y16" s="20"/>
+      <c r="Z16" s="20"/>
+      <c r="AA16" s="20"/>
     </row>
     <row r="17" spans="1:27" ht="15" customHeight="1">
-      <c r="A17" s="40"/>
-      <c r="B17" s="38"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="73"/>
-      <c r="E17" s="73"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
-      <c r="L17" s="32"/>
-      <c r="M17" s="31"/>
-      <c r="N17" s="31"/>
-      <c r="O17" s="25"/>
-      <c r="P17" s="32"/>
-      <c r="Q17" s="21"/>
-      <c r="R17" s="21"/>
-      <c r="S17" s="21"/>
-      <c r="T17" s="21"/>
-      <c r="U17" s="21"/>
-      <c r="V17" s="21"/>
-      <c r="W17" s="21"/>
-      <c r="X17" s="21"/>
-      <c r="Y17" s="21"/>
-      <c r="Z17" s="21"/>
-      <c r="AA17" s="21"/>
+      <c r="A17" s="39"/>
+      <c r="B17" s="37"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="72"/>
+      <c r="E17" s="72"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
+      <c r="L17" s="31"/>
+      <c r="M17" s="30"/>
+      <c r="N17" s="30"/>
+      <c r="O17" s="24"/>
+      <c r="P17" s="31"/>
+      <c r="Q17" s="20"/>
+      <c r="R17" s="20"/>
+      <c r="S17" s="20"/>
+      <c r="T17" s="20"/>
+      <c r="U17" s="20"/>
+      <c r="V17" s="20"/>
+      <c r="W17" s="20"/>
+      <c r="X17" s="20"/>
+      <c r="Y17" s="20"/>
+      <c r="Z17" s="20"/>
+      <c r="AA17" s="20"/>
     </row>
     <row r="18" spans="1:27" ht="15" customHeight="1">
       <c r="A18" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B18" s="39">
+      <c r="B18" s="38">
         <v>10</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="77"/>
-      <c r="E18" s="77"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="34"/>
-      <c r="L18" s="32"/>
-      <c r="M18" s="31"/>
-      <c r="N18" s="31"/>
-      <c r="O18" s="25"/>
-      <c r="P18" s="32"/>
-      <c r="Q18" s="21"/>
-      <c r="R18" s="21"/>
-      <c r="S18" s="21"/>
-      <c r="T18" s="21"/>
-      <c r="U18" s="21"/>
-      <c r="V18" s="21"/>
-      <c r="W18" s="21"/>
-      <c r="X18" s="21"/>
-      <c r="Y18" s="21"/>
-      <c r="Z18" s="21"/>
-      <c r="AA18" s="21"/>
+      <c r="D18" s="76"/>
+      <c r="E18" s="76"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="33"/>
+      <c r="L18" s="31"/>
+      <c r="M18" s="30"/>
+      <c r="N18" s="30"/>
+      <c r="O18" s="24"/>
+      <c r="P18" s="31"/>
+      <c r="Q18" s="20"/>
+      <c r="R18" s="20"/>
+      <c r="S18" s="20"/>
+      <c r="T18" s="20"/>
+      <c r="U18" s="20"/>
+      <c r="V18" s="20"/>
+      <c r="W18" s="20"/>
+      <c r="X18" s="20"/>
+      <c r="Y18" s="20"/>
+      <c r="Z18" s="20"/>
+      <c r="AA18" s="20"/>
     </row>
     <row r="19" spans="1:27" ht="15" customHeight="1">
-      <c r="A19" s="41" t="s">
+      <c r="A19" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="B19" s="22">
+      <c r="B19" s="21">
         <v>10</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D19" s="72"/>
-      <c r="E19" s="72"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="34"/>
-      <c r="L19" s="32"/>
-      <c r="M19" s="31"/>
-      <c r="N19" s="31"/>
-      <c r="O19" s="25"/>
-      <c r="P19" s="32"/>
-      <c r="Q19" s="21"/>
-      <c r="R19" s="21"/>
-      <c r="S19" s="21"/>
-      <c r="T19" s="21"/>
-      <c r="U19" s="21"/>
-      <c r="V19" s="21"/>
-      <c r="W19" s="21"/>
-      <c r="X19" s="21"/>
-      <c r="Y19" s="21"/>
-      <c r="Z19" s="21"/>
-      <c r="AA19" s="21"/>
+      <c r="D19" s="71"/>
+      <c r="E19" s="71"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="33"/>
+      <c r="L19" s="31"/>
+      <c r="M19" s="30"/>
+      <c r="N19" s="30"/>
+      <c r="O19" s="24"/>
+      <c r="P19" s="31"/>
+      <c r="Q19" s="20"/>
+      <c r="R19" s="20"/>
+      <c r="S19" s="20"/>
+      <c r="T19" s="20"/>
+      <c r="U19" s="20"/>
+      <c r="V19" s="20"/>
+      <c r="W19" s="20"/>
+      <c r="X19" s="20"/>
+      <c r="Y19" s="20"/>
+      <c r="Z19" s="20"/>
+      <c r="AA19" s="20"/>
     </row>
     <row r="20" spans="1:27" ht="15" customHeight="1">
-      <c r="A20" s="39"/>
-      <c r="B20" s="39"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="77"/>
-      <c r="E20" s="77"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="34"/>
-      <c r="L20" s="26"/>
-      <c r="M20" s="31"/>
-      <c r="N20" s="31"/>
-      <c r="O20" s="25"/>
-      <c r="P20" s="32"/>
-      <c r="Q20" s="21"/>
-      <c r="R20" s="21"/>
-      <c r="S20" s="21"/>
-      <c r="T20" s="21"/>
-      <c r="U20" s="21"/>
-      <c r="V20" s="21"/>
-      <c r="W20" s="21"/>
-      <c r="X20" s="21"/>
-      <c r="Y20" s="21"/>
-      <c r="Z20" s="21"/>
-      <c r="AA20" s="21"/>
+      <c r="A20" s="38"/>
+      <c r="B20" s="38"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="76"/>
+      <c r="E20" s="76"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="33"/>
+      <c r="L20" s="25"/>
+      <c r="M20" s="30"/>
+      <c r="N20" s="30"/>
+      <c r="O20" s="24"/>
+      <c r="P20" s="31"/>
+      <c r="Q20" s="20"/>
+      <c r="R20" s="20"/>
+      <c r="S20" s="20"/>
+      <c r="T20" s="20"/>
+      <c r="U20" s="20"/>
+      <c r="V20" s="20"/>
+      <c r="W20" s="20"/>
+      <c r="X20" s="20"/>
+      <c r="Y20" s="20"/>
+      <c r="Z20" s="20"/>
+      <c r="AA20" s="20"/>
     </row>
     <row r="21" spans="1:27" ht="15" customHeight="1">
-      <c r="A21" s="22"/>
-      <c r="B21" s="22"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="72"/>
-      <c r="E21" s="72"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="27"/>
-      <c r="L21" s="26"/>
-      <c r="M21" s="31"/>
-      <c r="N21" s="31"/>
-      <c r="O21" s="25"/>
-      <c r="P21" s="32"/>
-      <c r="Q21" s="21"/>
-      <c r="R21" s="21"/>
-      <c r="S21" s="21"/>
-      <c r="T21" s="21"/>
-      <c r="U21" s="21"/>
-      <c r="V21" s="21"/>
-      <c r="W21" s="21"/>
-      <c r="X21" s="21"/>
-      <c r="Y21" s="21"/>
-      <c r="Z21" s="21"/>
-      <c r="AA21" s="21"/>
+      <c r="A21" s="21"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="71"/>
+      <c r="E21" s="71"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="26"/>
+      <c r="L21" s="25"/>
+      <c r="M21" s="30"/>
+      <c r="N21" s="30"/>
+      <c r="O21" s="24"/>
+      <c r="P21" s="31"/>
+      <c r="Q21" s="20"/>
+      <c r="R21" s="20"/>
+      <c r="S21" s="20"/>
+      <c r="T21" s="20"/>
+      <c r="U21" s="20"/>
+      <c r="V21" s="20"/>
+      <c r="W21" s="20"/>
+      <c r="X21" s="20"/>
+      <c r="Y21" s="20"/>
+      <c r="Z21" s="20"/>
+      <c r="AA21" s="20"/>
     </row>
     <row r="22" spans="1:27" ht="15" customHeight="1">
-      <c r="A22" s="39"/>
-      <c r="B22" s="39"/>
-      <c r="C22" s="39"/>
-      <c r="D22" s="77"/>
-      <c r="E22" s="77"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="27"/>
-      <c r="L22" s="32"/>
-      <c r="M22" s="31"/>
-      <c r="N22" s="31"/>
-      <c r="O22" s="25"/>
-      <c r="P22" s="32"/>
-      <c r="Q22" s="21"/>
-      <c r="R22" s="21"/>
-      <c r="S22" s="21"/>
-      <c r="T22" s="21"/>
-      <c r="U22" s="21"/>
-      <c r="V22" s="21"/>
-      <c r="W22" s="21"/>
-      <c r="X22" s="21"/>
-      <c r="Y22" s="21"/>
-      <c r="Z22" s="21"/>
-      <c r="AA22" s="21"/>
+      <c r="A22" s="38"/>
+      <c r="B22" s="38"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="76"/>
+      <c r="E22" s="76"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="26"/>
+      <c r="L22" s="31"/>
+      <c r="M22" s="30"/>
+      <c r="N22" s="30"/>
+      <c r="O22" s="24"/>
+      <c r="P22" s="31"/>
+      <c r="Q22" s="20"/>
+      <c r="R22" s="20"/>
+      <c r="S22" s="20"/>
+      <c r="T22" s="20"/>
+      <c r="U22" s="20"/>
+      <c r="V22" s="20"/>
+      <c r="W22" s="20"/>
+      <c r="X22" s="20"/>
+      <c r="Y22" s="20"/>
+      <c r="Z22" s="20"/>
+      <c r="AA22" s="20"/>
     </row>
     <row r="23" spans="1:27" ht="15" customHeight="1">
-      <c r="A23" s="22"/>
-      <c r="B23" s="22"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="72"/>
-      <c r="E23" s="72"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="27"/>
-      <c r="L23" s="32"/>
-      <c r="M23" s="32"/>
-      <c r="N23" s="32"/>
-      <c r="O23" s="25"/>
-      <c r="P23" s="32"/>
-      <c r="Q23" s="21"/>
-      <c r="R23" s="21"/>
-      <c r="S23" s="21"/>
-      <c r="T23" s="21"/>
-      <c r="U23" s="21"/>
-      <c r="V23" s="21"/>
-      <c r="W23" s="21"/>
-      <c r="X23" s="21"/>
-      <c r="Y23" s="21"/>
-      <c r="Z23" s="21"/>
-      <c r="AA23" s="21"/>
+      <c r="A23" s="21"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="71"/>
+      <c r="E23" s="71"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="26"/>
+      <c r="L23" s="31"/>
+      <c r="M23" s="31"/>
+      <c r="N23" s="31"/>
+      <c r="O23" s="24"/>
+      <c r="P23" s="31"/>
+      <c r="Q23" s="20"/>
+      <c r="R23" s="20"/>
+      <c r="S23" s="20"/>
+      <c r="T23" s="20"/>
+      <c r="U23" s="20"/>
+      <c r="V23" s="20"/>
+      <c r="W23" s="20"/>
+      <c r="X23" s="20"/>
+      <c r="Y23" s="20"/>
+      <c r="Z23" s="20"/>
+      <c r="AA23" s="20"/>
     </row>
     <row r="24" spans="1:27" ht="15" customHeight="1">
-      <c r="A24" s="16"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="71"/>
-      <c r="E24" s="71"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="27"/>
-      <c r="L24" s="32"/>
-      <c r="M24" s="32"/>
-      <c r="N24" s="32"/>
-      <c r="O24" s="25"/>
-      <c r="P24" s="32"/>
-      <c r="Q24" s="21"/>
-      <c r="R24" s="21"/>
-      <c r="S24" s="21"/>
-      <c r="T24" s="21"/>
-      <c r="U24" s="21"/>
-      <c r="V24" s="21"/>
-      <c r="W24" s="21"/>
-      <c r="X24" s="21"/>
-      <c r="Y24" s="21"/>
-      <c r="Z24" s="21"/>
-      <c r="AA24" s="21"/>
+      <c r="A24" s="15"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="70"/>
+      <c r="E24" s="70"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="26"/>
+      <c r="L24" s="31"/>
+      <c r="M24" s="31"/>
+      <c r="N24" s="31"/>
+      <c r="O24" s="24"/>
+      <c r="P24" s="31"/>
+      <c r="Q24" s="20"/>
+      <c r="R24" s="20"/>
+      <c r="S24" s="20"/>
+      <c r="T24" s="20"/>
+      <c r="U24" s="20"/>
+      <c r="V24" s="20"/>
+      <c r="W24" s="20"/>
+      <c r="X24" s="20"/>
+      <c r="Y24" s="20"/>
+      <c r="Z24" s="20"/>
+      <c r="AA24" s="20"/>
     </row>
     <row r="25" spans="1:27" ht="15" customHeight="1">
-      <c r="A25" s="22"/>
-      <c r="B25" s="22"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="72"/>
-      <c r="E25" s="72"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="27"/>
-      <c r="L25" s="32"/>
-      <c r="M25" s="32"/>
-      <c r="N25" s="32"/>
-      <c r="O25" s="25"/>
-      <c r="P25" s="21"/>
-      <c r="Q25" s="21"/>
-      <c r="R25" s="21"/>
-      <c r="S25" s="21"/>
-      <c r="T25" s="21"/>
-      <c r="U25" s="21"/>
-      <c r="V25" s="21"/>
-      <c r="W25" s="21"/>
-      <c r="X25" s="21"/>
-      <c r="Y25" s="21"/>
-      <c r="Z25" s="21"/>
-      <c r="AA25" s="21"/>
+      <c r="A25" s="21"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="71"/>
+      <c r="E25" s="71"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="26"/>
+      <c r="L25" s="31"/>
+      <c r="M25" s="31"/>
+      <c r="N25" s="31"/>
+      <c r="O25" s="24"/>
+      <c r="P25" s="20"/>
+      <c r="Q25" s="20"/>
+      <c r="R25" s="20"/>
+      <c r="S25" s="20"/>
+      <c r="T25" s="20"/>
+      <c r="U25" s="20"/>
+      <c r="V25" s="20"/>
+      <c r="W25" s="20"/>
+      <c r="X25" s="20"/>
+      <c r="Y25" s="20"/>
+      <c r="Z25" s="20"/>
+      <c r="AA25" s="20"/>
     </row>
     <row r="26" spans="1:27" ht="15" customHeight="1">
-      <c r="A26" s="16"/>
-      <c r="B26" s="16"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="71"/>
-      <c r="E26" s="71"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="27"/>
-      <c r="L26" s="32"/>
-      <c r="M26" s="32"/>
-      <c r="N26" s="32"/>
-      <c r="O26" s="42"/>
-      <c r="P26" s="21"/>
-      <c r="Q26" s="21"/>
-      <c r="R26" s="21"/>
-      <c r="S26" s="21"/>
-      <c r="T26" s="21"/>
-      <c r="U26" s="21"/>
-      <c r="V26" s="21"/>
-      <c r="W26" s="21"/>
-      <c r="X26" s="21"/>
-      <c r="Y26" s="21"/>
-      <c r="Z26" s="21"/>
-      <c r="AA26" s="21"/>
+      <c r="A26" s="15"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="70"/>
+      <c r="E26" s="70"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="26"/>
+      <c r="L26" s="31"/>
+      <c r="M26" s="31"/>
+      <c r="N26" s="31"/>
+      <c r="O26" s="41"/>
+      <c r="P26" s="20"/>
+      <c r="Q26" s="20"/>
+      <c r="R26" s="20"/>
+      <c r="S26" s="20"/>
+      <c r="T26" s="20"/>
+      <c r="U26" s="20"/>
+      <c r="V26" s="20"/>
+      <c r="W26" s="20"/>
+      <c r="X26" s="20"/>
+      <c r="Y26" s="20"/>
+      <c r="Z26" s="20"/>
+      <c r="AA26" s="20"/>
     </row>
     <row r="27" spans="1:27" ht="15" customHeight="1">
-      <c r="A27" s="43"/>
-      <c r="B27" s="43"/>
-      <c r="C27" s="43"/>
-      <c r="D27" s="72"/>
-      <c r="E27" s="72"/>
-      <c r="F27" s="43"/>
-      <c r="G27" s="44"/>
-      <c r="L27" s="21"/>
-      <c r="M27" s="21"/>
-      <c r="N27" s="21"/>
-      <c r="O27" s="21"/>
-      <c r="P27" s="21"/>
-      <c r="Q27" s="21"/>
-      <c r="R27" s="21"/>
-      <c r="S27" s="21"/>
-      <c r="T27" s="21"/>
-      <c r="U27" s="21"/>
-      <c r="V27" s="21"/>
-      <c r="W27" s="21"/>
-      <c r="X27" s="21"/>
-      <c r="Y27" s="21"/>
-      <c r="Z27" s="21"/>
-      <c r="AA27" s="21"/>
+      <c r="A27" s="42"/>
+      <c r="B27" s="42"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="71"/>
+      <c r="E27" s="71"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="43"/>
+      <c r="L27" s="20"/>
+      <c r="M27" s="20"/>
+      <c r="N27" s="20"/>
+      <c r="O27" s="20"/>
+      <c r="P27" s="20"/>
+      <c r="Q27" s="20"/>
+      <c r="R27" s="20"/>
+      <c r="S27" s="20"/>
+      <c r="T27" s="20"/>
+      <c r="U27" s="20"/>
+      <c r="V27" s="20"/>
+      <c r="W27" s="20"/>
+      <c r="X27" s="20"/>
+      <c r="Y27" s="20"/>
+      <c r="Z27" s="20"/>
+      <c r="AA27" s="20"/>
     </row>
     <row r="28" spans="1:27" ht="15" customHeight="1">
-      <c r="A28" s="45"/>
-      <c r="B28" s="45"/>
-      <c r="C28" s="45"/>
-      <c r="D28" s="71"/>
-      <c r="E28" s="71"/>
-      <c r="F28" s="45"/>
-      <c r="G28" s="44"/>
-      <c r="L28" s="21"/>
-      <c r="M28" s="21"/>
-      <c r="N28" s="21"/>
-      <c r="O28" s="21"/>
-      <c r="P28" s="21"/>
-      <c r="Q28" s="21"/>
-      <c r="R28" s="21"/>
-      <c r="S28" s="21"/>
-      <c r="T28" s="21"/>
-      <c r="U28" s="21"/>
-      <c r="V28" s="21"/>
-      <c r="W28" s="21"/>
-      <c r="X28" s="21"/>
-      <c r="Y28" s="21"/>
-      <c r="Z28" s="21"/>
-      <c r="AA28" s="21"/>
+      <c r="A28" s="44"/>
+      <c r="B28" s="44"/>
+      <c r="C28" s="44"/>
+      <c r="D28" s="70"/>
+      <c r="E28" s="70"/>
+      <c r="F28" s="44"/>
+      <c r="G28" s="43"/>
+      <c r="L28" s="20"/>
+      <c r="M28" s="20"/>
+      <c r="N28" s="20"/>
+      <c r="O28" s="20"/>
+      <c r="P28" s="20"/>
+      <c r="Q28" s="20"/>
+      <c r="R28" s="20"/>
+      <c r="S28" s="20"/>
+      <c r="T28" s="20"/>
+      <c r="U28" s="20"/>
+      <c r="V28" s="20"/>
+      <c r="W28" s="20"/>
+      <c r="X28" s="20"/>
+      <c r="Y28" s="20"/>
+      <c r="Z28" s="20"/>
+      <c r="AA28" s="20"/>
     </row>
     <row r="29" spans="1:27" ht="15" customHeight="1">
-      <c r="A29" s="22"/>
-      <c r="B29" s="22"/>
-      <c r="C29" s="22"/>
-      <c r="D29" s="72"/>
-      <c r="E29" s="72"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="27"/>
-      <c r="L29" s="21"/>
-      <c r="M29" s="21"/>
-      <c r="N29" s="21"/>
-      <c r="O29" s="21"/>
-      <c r="P29" s="21"/>
-      <c r="Q29" s="46"/>
+      <c r="A29" s="21"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="71"/>
+      <c r="E29" s="71"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="26"/>
+      <c r="L29" s="20"/>
+      <c r="M29" s="20"/>
+      <c r="N29" s="20"/>
+      <c r="O29" s="20"/>
+      <c r="P29" s="20"/>
+      <c r="Q29" s="45"/>
       <c r="R29" s="83"/>
       <c r="S29" s="80"/>
       <c r="T29" s="80"/>
@@ -3038,22 +3080,22 @@
       <c r="X29" s="80"/>
       <c r="Y29" s="80"/>
       <c r="Z29" s="80"/>
-      <c r="AA29" s="21"/>
+      <c r="AA29" s="20"/>
     </row>
     <row r="30" spans="1:27" ht="15" customHeight="1">
-      <c r="A30" s="16"/>
-      <c r="B30" s="16"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="71"/>
-      <c r="E30" s="71"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="27"/>
-      <c r="L30" s="21"/>
-      <c r="M30" s="21"/>
-      <c r="N30" s="21"/>
-      <c r="O30" s="21"/>
-      <c r="P30" s="21"/>
-      <c r="Q30" s="21"/>
+      <c r="A30" s="15"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="70"/>
+      <c r="E30" s="70"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="26"/>
+      <c r="L30" s="20"/>
+      <c r="M30" s="20"/>
+      <c r="N30" s="20"/>
+      <c r="O30" s="20"/>
+      <c r="P30" s="20"/>
+      <c r="Q30" s="20"/>
       <c r="R30" s="79"/>
       <c r="S30" s="80"/>
       <c r="T30" s="80"/>
@@ -3063,94 +3105,116 @@
       <c r="X30" s="80"/>
       <c r="Y30" s="80"/>
       <c r="Z30" s="80"/>
-      <c r="AA30" s="21"/>
+      <c r="AA30" s="20"/>
     </row>
     <row r="31" spans="1:27" ht="15" customHeight="1">
-      <c r="A31" s="22"/>
-      <c r="B31" s="22"/>
-      <c r="C31" s="22"/>
-      <c r="D31" s="72"/>
-      <c r="E31" s="72"/>
-      <c r="F31" s="22"/>
-      <c r="G31" s="27"/>
-      <c r="L31" s="21"/>
-      <c r="M31" s="21"/>
-      <c r="N31" s="21"/>
-      <c r="O31" s="21"/>
-      <c r="P31" s="21"/>
-      <c r="Q31" s="21"/>
-      <c r="R31" s="21"/>
-      <c r="S31" s="21"/>
-      <c r="T31" s="21"/>
-      <c r="U31" s="21"/>
-      <c r="V31" s="21"/>
-      <c r="W31" s="21"/>
-      <c r="X31" s="21"/>
-      <c r="Y31" s="21"/>
-      <c r="Z31" s="21"/>
-      <c r="AA31" s="21"/>
+      <c r="A31" s="21"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="71"/>
+      <c r="E31" s="71"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="26"/>
+      <c r="L31" s="20"/>
+      <c r="M31" s="20"/>
+      <c r="N31" s="20"/>
+      <c r="O31" s="20"/>
+      <c r="P31" s="20"/>
+      <c r="Q31" s="20"/>
+      <c r="R31" s="20"/>
+      <c r="S31" s="20"/>
+      <c r="T31" s="20"/>
+      <c r="U31" s="20"/>
+      <c r="V31" s="20"/>
+      <c r="W31" s="20"/>
+      <c r="X31" s="20"/>
+      <c r="Y31" s="20"/>
+      <c r="Z31" s="20"/>
+      <c r="AA31" s="20"/>
     </row>
     <row r="32" spans="1:27" ht="15" customHeight="1">
-      <c r="A32" s="16"/>
-      <c r="B32" s="16"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="71"/>
-      <c r="E32" s="71"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="27"/>
-      <c r="R32" s="21"/>
-      <c r="S32" s="21"/>
-      <c r="T32" s="21"/>
-      <c r="U32" s="21"/>
+      <c r="A32" s="15"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="70"/>
+      <c r="E32" s="70"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="26"/>
+      <c r="R32" s="20"/>
+      <c r="S32" s="20"/>
+      <c r="T32" s="20"/>
+      <c r="U32" s="20"/>
     </row>
     <row r="33" spans="1:21" ht="15" customHeight="1">
-      <c r="A33" s="22"/>
-      <c r="B33" s="22"/>
-      <c r="C33" s="22"/>
-      <c r="D33" s="72"/>
-      <c r="E33" s="72"/>
-      <c r="F33" s="22"/>
-      <c r="G33" s="27"/>
-      <c r="H33" s="21"/>
-      <c r="I33" s="21"/>
-      <c r="J33" s="21"/>
-      <c r="K33" s="21"/>
-      <c r="L33" s="21"/>
-      <c r="M33" s="21"/>
-      <c r="N33" s="21"/>
-      <c r="O33" s="21"/>
-      <c r="P33" s="21"/>
-      <c r="Q33" s="21"/>
-      <c r="R33" s="21"/>
-      <c r="S33" s="21"/>
-      <c r="T33" s="21"/>
-      <c r="U33" s="21"/>
+      <c r="A33" s="21"/>
+      <c r="B33" s="21"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="71"/>
+      <c r="E33" s="71"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="26"/>
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="20"/>
+      <c r="K33" s="20"/>
+      <c r="L33" s="20"/>
+      <c r="M33" s="20"/>
+      <c r="N33" s="20"/>
+      <c r="O33" s="20"/>
+      <c r="P33" s="20"/>
+      <c r="Q33" s="20"/>
+      <c r="R33" s="20"/>
+      <c r="S33" s="20"/>
+      <c r="T33" s="20"/>
+      <c r="U33" s="20"/>
     </row>
     <row r="34" spans="1:21" ht="15" customHeight="1">
-      <c r="A34" s="16"/>
-      <c r="B34" s="16"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="71"/>
-      <c r="E34" s="71"/>
-      <c r="F34" s="16"/>
-      <c r="G34" s="27"/>
-      <c r="H34" s="21"/>
-      <c r="I34" s="21"/>
-      <c r="J34" s="21"/>
-      <c r="K34" s="21"/>
-      <c r="L34" s="21"/>
-      <c r="M34" s="21"/>
-      <c r="N34" s="21"/>
-      <c r="O34" s="21"/>
-      <c r="P34" s="21"/>
-      <c r="Q34" s="21"/>
-      <c r="R34" s="21"/>
-      <c r="S34" s="21"/>
-      <c r="T34" s="21"/>
-      <c r="U34" s="21"/>
+      <c r="A34" s="15"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="70"/>
+      <c r="E34" s="70"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="26"/>
+      <c r="H34" s="20"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="20"/>
+      <c r="K34" s="20"/>
+      <c r="L34" s="20"/>
+      <c r="M34" s="20"/>
+      <c r="N34" s="20"/>
+      <c r="O34" s="20"/>
+      <c r="P34" s="20"/>
+      <c r="Q34" s="20"/>
+      <c r="R34" s="20"/>
+      <c r="S34" s="20"/>
+      <c r="T34" s="20"/>
+      <c r="U34" s="20"/>
+    </row>
+    <row r="36" spans="1:21" ht="15" customHeight="1">
+      <c r="D36" s="84" t="s">
+        <v>5</v>
+      </c>
+      <c r="E36" s="84" t="s">
+        <v>45</v>
+      </c>
+      <c r="F36" s="85" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" ht="15" customHeight="1">
+      <c r="D37" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="E37" s="77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" s="78" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="40" spans="1:21" ht="15" customHeight="1">
-      <c r="J40" s="7"/>
+      <c r="J40" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3172,159 +3236,159 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" customHeight="1"/>
   <sheetData>
     <row r="10" spans="1:6">
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="9"/>
+      <c r="F11" s="8"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="10">
+      <c r="B12" s="9">
         <v>42401</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="10">
         <f t="shared" ref="C12:C17" si="0">INT(B12)-INT($B$12)</f>
         <v>0</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D12" s="10">
         <f t="shared" ref="D12:D17" si="1">INT(E12)-INT($B12)</f>
         <v>43</v>
       </c>
-      <c r="E12" s="10">
+      <c r="E12" s="9">
         <v>42444</v>
       </c>
-      <c r="F12" s="12"/>
+      <c r="F12" s="11"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="13">
+      <c r="B13" s="12">
         <v>42403</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C13" s="10">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D13" s="10">
         <f t="shared" si="1"/>
         <v>211</v>
       </c>
-      <c r="E13" s="10">
+      <c r="E13" s="9">
         <v>42614</v>
       </c>
-      <c r="F13" s="12"/>
+      <c r="F13" s="11"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="10">
+      <c r="B14" s="9">
         <v>42430</v>
       </c>
-      <c r="C14" s="11">
+      <c r="C14" s="10">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D14" s="10">
         <f t="shared" si="1"/>
         <v>275</v>
       </c>
-      <c r="E14" s="10">
+      <c r="E14" s="9">
         <v>42705</v>
       </c>
-      <c r="F14" s="12"/>
+      <c r="F14" s="11"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="10">
+      <c r="B15" s="9">
         <v>42444</v>
       </c>
-      <c r="C15" s="11">
+      <c r="C15" s="10">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="D15" s="11">
+      <c r="D15" s="10">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="E15" s="13">
+      <c r="E15" s="12">
         <v>42449</v>
       </c>
-      <c r="F15" s="12"/>
+      <c r="F15" s="11"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="10">
+      <c r="B16" s="9">
         <v>42614</v>
       </c>
-      <c r="C16" s="11">
+      <c r="C16" s="10">
         <f t="shared" si="0"/>
         <v>213</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D16" s="10">
         <f t="shared" si="1"/>
         <v>110</v>
       </c>
-      <c r="E16" s="13">
+      <c r="E16" s="12">
         <v>42724</v>
       </c>
-      <c r="F16" s="12"/>
+      <c r="F16" s="11"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="10">
+      <c r="B17" s="9">
         <v>42705</v>
       </c>
-      <c r="C17" s="11">
+      <c r="C17" s="10">
         <f t="shared" si="0"/>
         <v>304</v>
       </c>
-      <c r="D17" s="11">
+      <c r="D17" s="10">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="E17" s="13">
+      <c r="E17" s="12">
         <v>42725</v>
       </c>
-      <c r="F17" s="12"/>
+      <c r="F17" s="11"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="E18" s="13"/>
+      <c r="E18" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
